--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_17_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1347038.34706424</v>
+        <v>1341642.092247032</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9438528.731709812</v>
+        <v>9438528.731709806</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>263.9037135153069</v>
+        <v>17.89839760838481</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>341.7602787893052</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I11" t="n">
-        <v>52.36689279964236</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>25.73396216406942</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.4822098874772</v>
+        <v>170.4822098874773</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>174.3669915850006</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>145.1734758482728</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.40949199263524</v>
       </c>
       <c r="S13" t="n">
-        <v>126.4467615052743</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T13" t="n">
         <v>229.1567118763024</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>103.5604495848644</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>298.3722087065644</v>
       </c>
       <c r="I14" t="n">
-        <v>52.36689279964236</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>292.0436308407187</v>
+        <v>232.6339936753356</v>
       </c>
     </row>
     <row r="15">
@@ -1688,16 +1688,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>12.42920533005014</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>117.6852892315554</v>
@@ -1742,16 +1742,16 @@
         <v>170.4822098874772</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>211.3089334880623</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.05968819712271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>229.1567118763024</v>
@@ -1824,13 +1824,13 @@
         <v>282.530721081746</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>213.4614694797091</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>341.7602787893053</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>341.7602787893053</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>17.89839760838481</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>301.02245355762</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>16.76603093627689</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>117.6852892315554</v>
       </c>
       <c r="H18" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8.475159690333342</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U18" t="n">
         <v>207.8852796172697</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>13.71117794176834</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>72.58787428688331</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>102.1663867729557</v>
@@ -2052,7 +2052,7 @@
         <v>78.40949199263522</v>
       </c>
       <c r="S19" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.155045937236748</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>301.0224535576201</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>106.6389996641623</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.2987267031963</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.475159690333342</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>170.4822098874772</v>
@@ -2222,13 +2222,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>34.45535268636779</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>39.05968819712271</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>72.60315912052081</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U22" t="n">
         <v>282.530721081746</v>
@@ -2304,7 +2304,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>59.7747658571092</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>406.8370587541321</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I23" t="n">
         <v>52.36689279964236</v>
@@ -2371,19 +2371,19 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U23" t="n">
-        <v>137.0985862839833</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>123.1874880556999</v>
       </c>
       <c r="G24" t="n">
         <v>117.6852892315554</v>
@@ -2481,22 +2481,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>12.88320883297414</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.1194337491649</v>
       </c>
       <c r="H25" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>183.6362815515982</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>297.9303291311929</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>236.7472753510846</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I26" t="n">
-        <v>52.36689279964236</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965525</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -2715,7 +2715,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -2727,7 +2727,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>183.6362815515982</v>
       </c>
       <c r="T28" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>225.5868850005937</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>146.8444628225598</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>267.7716568955469</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>52.36689279964236</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>211.6610584811623</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>75.98021957201618</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>183.6362815515982</v>
       </c>
       <c r="T31" t="n">
-        <v>55.96527117189066</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U31" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>89.36185469587737</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>116.1056549224301</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3046,10 +3046,10 @@
         <v>406.8370587541321</v>
       </c>
       <c r="H32" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>19.4612333601575</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3176,7 +3176,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552485</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>102.1663867729557</v>
+        <v>64.18747238030858</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S34" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>229.1567118763024</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>177.8127012435785</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>341.7602787893053</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>89.36139507645805</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T35" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>186.1713860068062</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U36" t="n">
-        <v>148.4581657057618</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>181.3369877437528</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5873294507275</v>
       </c>
       <c r="H37" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>102.1663867729557</v>
@@ -3474,22 +3474,22 @@
         <v>78.40949199263522</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>76.21054159959372</v>
+        <v>120.6715980495447</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>341.7602787893053</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>66.32546716721028</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T38" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0196767335278</v>
+        <v>133.8044932071639</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>69.4156118877838</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
@@ -3602,7 +3602,7 @@
         <v>76.07674487096699</v>
       </c>
       <c r="I39" t="n">
-        <v>8.475159690333342</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>207.8852796172697</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>95.50257960356582</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>39.05968819712293</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T40" t="n">
         <v>229.1567118763024</v>
@@ -3720,10 +3720,10 @@
         <v>282.530721081746</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>35.30823915106347</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>341.7602787893053</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>341.7602787893053</v>
       </c>
-      <c r="F41" t="n">
-        <v>17.89839760838515</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>114.8510675508137</v>
+        <v>40.06903986260391</v>
       </c>
       <c r="T41" t="n">
         <v>211.6610584811623</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8.475159690333342</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V42" t="n">
-        <v>161.0333747014056</v>
+        <v>195.3258093401676</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6.344449106306829</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T43" t="n">
         <v>229.1567118763024</v>
       </c>
       <c r="U43" t="n">
-        <v>22.29997671471074</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>91.39084690683322</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>298.3722087065644</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0196767335278</v>
+        <v>180.2671008756933</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>341.7602787893053</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>106.8640143706812</v>
       </c>
       <c r="C45" t="n">
-        <v>142.2363036828206</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
@@ -4067,10 +4067,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>76.07674487096699</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>170.4822098874772</v>
@@ -4115,10 +4115,10 @@
         <v>207.8852796172697</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -4146,16 +4146,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5873294507275</v>
       </c>
       <c r="H46" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>108.72311534002</v>
       </c>
       <c r="U46" t="n">
-        <v>251.7611931359746</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>692.0184840246136</v>
+        <v>1037.230886842094</v>
       </c>
       <c r="C11" t="n">
-        <v>425.4490764333945</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="D11" t="n">
-        <v>425.4490764333945</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="E11" t="n">
-        <v>425.4490764333945</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="F11" t="n">
-        <v>80.23667361591448</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="G11" t="n">
-        <v>80.23667361591448</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H11" t="n">
-        <v>80.23667361591448</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="I11" t="n">
         <v>27.34082230314442</v>
       </c>
       <c r="J11" t="n">
-        <v>95.19447492671549</v>
+        <v>95.19447492671532</v>
       </c>
       <c r="K11" t="n">
-        <v>229.8695478244281</v>
+        <v>229.8695478244279</v>
       </c>
       <c r="L11" t="n">
-        <v>420.9320297462634</v>
+        <v>420.9320297462637</v>
       </c>
       <c r="M11" t="n">
-        <v>654.110989022005</v>
+        <v>654.1109890220052</v>
       </c>
       <c r="N11" t="n">
-        <v>894.062003086166</v>
+        <v>894.0620030861662</v>
       </c>
       <c r="O11" t="n">
-        <v>1111.973021646432</v>
+        <v>1111.973021646433</v>
       </c>
       <c r="P11" t="n">
         <v>1275.529383879705</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>537.1821162144682</v>
+        <v>444.3019878634723</v>
       </c>
       <c r="C12" t="n">
-        <v>537.1821162144682</v>
+        <v>444.3019878634723</v>
       </c>
       <c r="D12" t="n">
-        <v>407.0931488359486</v>
+        <v>314.2130204849526</v>
       </c>
       <c r="E12" t="n">
-        <v>270.6466579468363</v>
+        <v>177.7665295958403</v>
       </c>
       <c r="F12" t="n">
-        <v>146.2148518299681</v>
+        <v>53.33472347897212</v>
       </c>
       <c r="G12" t="n">
-        <v>27.34082230314442</v>
+        <v>53.33472347897212</v>
       </c>
       <c r="H12" t="n">
         <v>27.34082230314442</v>
@@ -5120,52 +5120,52 @@
         <v>27.34082230314442</v>
       </c>
       <c r="J12" t="n">
-        <v>55.52239243964174</v>
+        <v>250.2573874193691</v>
       </c>
       <c r="K12" t="n">
-        <v>154.4898205685662</v>
+        <v>404.3562692829145</v>
       </c>
       <c r="L12" t="n">
-        <v>317.6733927779657</v>
+        <v>567.5398414923139</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0160687793779</v>
+        <v>770.549337700803</v>
       </c>
       <c r="N12" t="n">
-        <v>939.5808025904112</v>
+        <v>988.2975103955574</v>
       </c>
       <c r="O12" t="n">
-        <v>1124.334973168425</v>
+        <v>1173.051680973571</v>
       </c>
       <c r="P12" t="n">
-        <v>1260.04999021455</v>
+        <v>1308.766698019696</v>
       </c>
       <c r="Q12" t="n">
-        <v>1318.324407352075</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="R12" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S12" t="n">
-        <v>1254.135937528826</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T12" t="n">
-        <v>1081.931685117233</v>
+        <v>1194.836862745628</v>
       </c>
       <c r="U12" t="n">
-        <v>1081.931685117233</v>
+        <v>1194.836862745628</v>
       </c>
       <c r="V12" t="n">
-        <v>1081.931685117233</v>
+        <v>1194.836862745628</v>
       </c>
       <c r="W12" t="n">
-        <v>905.8034107889493</v>
+        <v>964.7196168789146</v>
       </c>
       <c r="X12" t="n">
-        <v>716.4963331389611</v>
+        <v>775.4125392289263</v>
       </c>
       <c r="Y12" t="n">
-        <v>537.1821162144682</v>
+        <v>596.0983223044336</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.6376688077615</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="C13" t="n">
-        <v>652.4325508737508</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="D13" t="n">
-        <v>496.7994377762655</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="E13" t="n">
-        <v>341.240625635468</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="F13" t="n">
-        <v>341.240625635468</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="G13" t="n">
-        <v>173.9806968973594</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="H13" t="n">
-        <v>27.34082230314442</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="I13" t="n">
         <v>27.34082230314442</v>
@@ -5202,49 +5202,49 @@
         <v>27.34082230314442</v>
       </c>
       <c r="K13" t="n">
-        <v>57.52162409307883</v>
+        <v>222.3766968357602</v>
       </c>
       <c r="L13" t="n">
-        <v>366.5073570650328</v>
+        <v>531.3624298077141</v>
       </c>
       <c r="M13" t="n">
-        <v>704.850033066445</v>
+        <v>594.6962364060661</v>
       </c>
       <c r="N13" t="n">
-        <v>771.7852951407726</v>
+        <v>828.8991145837708</v>
       </c>
       <c r="O13" t="n">
-        <v>1044.312646241303</v>
+        <v>1129.322704634535</v>
       </c>
       <c r="P13" t="n">
-        <v>1282.031056763989</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="Q13" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="R13" t="n">
-        <v>1367.041115157221</v>
+        <v>1287.839608093953</v>
       </c>
       <c r="S13" t="n">
-        <v>1239.317113636742</v>
+        <v>1102.34841460749</v>
       </c>
       <c r="T13" t="n">
-        <v>1007.845687499063</v>
+        <v>870.8769884698111</v>
       </c>
       <c r="U13" t="n">
-        <v>1007.845687499063</v>
+        <v>766.2704737376248</v>
       </c>
       <c r="V13" t="n">
-        <v>1007.845687499063</v>
+        <v>500.291128558449</v>
       </c>
       <c r="W13" t="n">
-        <v>1007.845687499063</v>
+        <v>500.291128558449</v>
       </c>
       <c r="X13" t="n">
-        <v>1007.845687499063</v>
+        <v>500.291128558449</v>
       </c>
       <c r="Y13" t="n">
-        <v>1007.845687499063</v>
+        <v>277.1790673750924</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1072.047548651445</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="C14" t="n">
-        <v>1072.047548651445</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="D14" t="n">
-        <v>1072.047548651445</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="E14" t="n">
-        <v>1072.047548651445</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="F14" t="n">
-        <v>726.8351458339647</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="G14" t="n">
-        <v>381.6227430164846</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H14" t="n">
-        <v>80.23667361591448</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="I14" t="n">
         <v>27.34082230314442</v>
       </c>
       <c r="J14" t="n">
-        <v>95.19447492671549</v>
+        <v>95.19447492671543</v>
       </c>
       <c r="K14" t="n">
         <v>229.8695478244281</v>
       </c>
       <c r="L14" t="n">
-        <v>420.9320297462637</v>
+        <v>420.9320297462639</v>
       </c>
       <c r="M14" t="n">
-        <v>654.1109890220052</v>
+        <v>654.1109890220055</v>
       </c>
       <c r="N14" t="n">
         <v>894.0620030861662</v>
@@ -5305,25 +5305,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S14" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="T14" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="U14" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="V14" t="n">
-        <v>1367.041115157221</v>
+        <v>908.9231265164832</v>
       </c>
       <c r="W14" t="n">
-        <v>1367.041115157221</v>
+        <v>563.7107236990031</v>
       </c>
       <c r="X14" t="n">
-        <v>1367.041115157221</v>
+        <v>563.7107236990031</v>
       </c>
       <c r="Y14" t="n">
-        <v>1072.047548651445</v>
+        <v>328.7268917037146</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>510.7110271595702</v>
+        <v>506.7068525900777</v>
       </c>
       <c r="C15" t="n">
-        <v>498.1562743009337</v>
+        <v>356.05262215017</v>
       </c>
       <c r="D15" t="n">
-        <v>368.067306922414</v>
+        <v>356.05262215017</v>
       </c>
       <c r="E15" t="n">
-        <v>231.6208160333018</v>
+        <v>356.05262215017</v>
       </c>
       <c r="F15" t="n">
         <v>231.6208160333018</v>
@@ -5357,16 +5357,16 @@
         <v>27.34082230314442</v>
       </c>
       <c r="J15" t="n">
-        <v>55.52239243964175</v>
+        <v>250.2573874193691</v>
       </c>
       <c r="K15" t="n">
-        <v>154.4898205685662</v>
+        <v>349.2248155482936</v>
       </c>
       <c r="L15" t="n">
-        <v>398.2286303805101</v>
+        <v>518.8231336871678</v>
       </c>
       <c r="M15" t="n">
-        <v>601.2381265889992</v>
+        <v>721.8326298956569</v>
       </c>
       <c r="N15" t="n">
         <v>939.5808025904114</v>
@@ -5390,19 +5390,19 @@
         <v>1081.931685117233</v>
       </c>
       <c r="U15" t="n">
-        <v>1081.931685117233</v>
+        <v>871.946554190698</v>
       </c>
       <c r="V15" t="n">
-        <v>1081.931685117233</v>
+        <v>871.946554190698</v>
       </c>
       <c r="W15" t="n">
-        <v>851.8144392505199</v>
+        <v>658.503187031039</v>
       </c>
       <c r="X15" t="n">
-        <v>662.5073616005316</v>
+        <v>658.503187031039</v>
       </c>
       <c r="Y15" t="n">
-        <v>662.5073616005316</v>
+        <v>658.503187031039</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>184.6667570901715</v>
+        <v>66.79505280528858</v>
       </c>
       <c r="C16" t="n">
-        <v>184.6667570901715</v>
+        <v>66.79505280528858</v>
       </c>
       <c r="D16" t="n">
-        <v>184.6667570901715</v>
+        <v>66.79505280528858</v>
       </c>
       <c r="E16" t="n">
-        <v>184.6667570901715</v>
+        <v>66.79505280528858</v>
       </c>
       <c r="F16" t="n">
-        <v>27.34082230314442</v>
+        <v>66.79505280528858</v>
       </c>
       <c r="G16" t="n">
-        <v>27.34082230314442</v>
+        <v>66.79505280528858</v>
       </c>
       <c r="H16" t="n">
         <v>27.34082230314442</v>
@@ -5436,19 +5436,19 @@
         <v>27.34082230314442</v>
       </c>
       <c r="J16" t="n">
-        <v>66.45306417582707</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="K16" t="n">
-        <v>261.4889387084428</v>
+        <v>222.3766968357602</v>
       </c>
       <c r="L16" t="n">
-        <v>319.5487426196202</v>
+        <v>531.3624298077142</v>
       </c>
       <c r="M16" t="n">
-        <v>496.6085706148567</v>
+        <v>594.6962364060662</v>
       </c>
       <c r="N16" t="n">
-        <v>828.8991145837711</v>
+        <v>926.9867803749805</v>
       </c>
       <c r="O16" t="n">
         <v>1129.322704634535</v>
@@ -5460,28 +5460,28 @@
         <v>1367.041115157221</v>
       </c>
       <c r="R16" t="n">
-        <v>1287.839608093953</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="S16" t="n">
-        <v>1102.34841460749</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T16" t="n">
-        <v>870.8769884698113</v>
+        <v>1135.569689019542</v>
       </c>
       <c r="U16" t="n">
-        <v>585.4924217205729</v>
+        <v>850.1851222703036</v>
       </c>
       <c r="V16" t="n">
-        <v>585.4924217205729</v>
+        <v>584.2057770911279</v>
       </c>
       <c r="W16" t="n">
-        <v>585.4924217205729</v>
+        <v>300.8753750223055</v>
       </c>
       <c r="X16" t="n">
-        <v>369.8747757814727</v>
+        <v>66.79505280528858</v>
       </c>
       <c r="Y16" t="n">
-        <v>369.8747757814727</v>
+        <v>66.79505280528858</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>372.5532251206245</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="C17" t="n">
-        <v>372.5532251206245</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="D17" t="n">
-        <v>27.34082230314442</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="E17" t="n">
-        <v>27.34082230314442</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="F17" t="n">
-        <v>27.34082230314442</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="G17" t="n">
-        <v>27.34082230314442</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H17" t="n">
         <v>27.34082230314442</v>
@@ -5524,7 +5524,7 @@
         <v>420.9320297462639</v>
       </c>
       <c r="M17" t="n">
-        <v>654.1109890220052</v>
+        <v>654.1109890220056</v>
       </c>
       <c r="N17" t="n">
         <v>894.0620030861662</v>
@@ -5542,25 +5542,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S17" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="T17" t="n">
-        <v>1367.041115157221</v>
+        <v>1037.230886842094</v>
       </c>
       <c r="U17" t="n">
-        <v>1367.041115157221</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="V17" t="n">
-        <v>1367.041115157221</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="W17" t="n">
-        <v>1062.978030755585</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="X17" t="n">
-        <v>717.7656279381047</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="Y17" t="n">
-        <v>717.7656279381047</v>
+        <v>1019.151697338675</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>515.0916590850518</v>
+        <v>296.8690822698759</v>
       </c>
       <c r="C18" t="n">
-        <v>515.0916590850518</v>
+        <v>146.2148518299681</v>
       </c>
       <c r="D18" t="n">
-        <v>385.0026917065321</v>
+        <v>146.2148518299681</v>
       </c>
       <c r="E18" t="n">
-        <v>248.5562008174198</v>
+        <v>146.2148518299681</v>
       </c>
       <c r="F18" t="n">
-        <v>231.6208160333018</v>
+        <v>146.2148518299681</v>
       </c>
       <c r="G18" t="n">
-        <v>112.7467865064781</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="H18" t="n">
-        <v>35.9015896671175</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="I18" t="n">
         <v>27.34082230314442</v>
       </c>
       <c r="J18" t="n">
-        <v>55.52239243964175</v>
+        <v>130.2297373619772</v>
       </c>
       <c r="K18" t="n">
-        <v>154.4898205685662</v>
+        <v>229.1971654909017</v>
       </c>
       <c r="L18" t="n">
-        <v>317.6733927779657</v>
+        <v>567.5398414923139</v>
       </c>
       <c r="M18" t="n">
-        <v>520.6828889864547</v>
+        <v>770.549337700803</v>
       </c>
       <c r="N18" t="n">
-        <v>859.025564987867</v>
+        <v>988.2975103955575</v>
       </c>
       <c r="O18" t="n">
-        <v>1124.334973168425</v>
+        <v>1173.051680973571</v>
       </c>
       <c r="P18" t="n">
-        <v>1260.04999021455</v>
+        <v>1308.766698019696</v>
       </c>
       <c r="Q18" t="n">
-        <v>1318.324407352075</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="R18" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S18" t="n">
-        <v>1367.041115157221</v>
+        <v>1254.135937528826</v>
       </c>
       <c r="T18" t="n">
-        <v>1367.041115157221</v>
+        <v>1081.931685117233</v>
       </c>
       <c r="U18" t="n">
-        <v>1157.055984230686</v>
+        <v>871.946554190698</v>
       </c>
       <c r="V18" t="n">
-        <v>934.5159826017532</v>
+        <v>858.0968795020431</v>
       </c>
       <c r="W18" t="n">
-        <v>704.3987367350401</v>
+        <v>627.9796336353299</v>
       </c>
       <c r="X18" t="n">
-        <v>515.0916590850518</v>
+        <v>627.9796336353299</v>
       </c>
       <c r="Y18" t="n">
-        <v>515.0916590850518</v>
+        <v>448.6654167108372</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>819.018012538668</v>
+        <v>769.262170740198</v>
       </c>
       <c r="C19" t="n">
-        <v>745.696927400402</v>
+        <v>599.0570528061872</v>
       </c>
       <c r="D19" t="n">
-        <v>590.0638143029169</v>
+        <v>443.423939708702</v>
       </c>
       <c r="E19" t="n">
-        <v>434.5050021621194</v>
+        <v>287.8651275679045</v>
       </c>
       <c r="F19" t="n">
-        <v>277.1790673750924</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="G19" t="n">
-        <v>277.1790673750924</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="H19" t="n">
         <v>130.5391927808774</v>
@@ -5679,16 +5679,16 @@
         <v>261.4889387084428</v>
       </c>
       <c r="L19" t="n">
-        <v>319.5487426196202</v>
+        <v>570.4746716803968</v>
       </c>
       <c r="M19" t="n">
-        <v>411.598512221625</v>
+        <v>885.4579304984169</v>
       </c>
       <c r="N19" t="n">
-        <v>743.8890561905393</v>
+        <v>952.3931925727445</v>
       </c>
       <c r="O19" t="n">
-        <v>1044.312646241303</v>
+        <v>1252.816782623509</v>
       </c>
       <c r="P19" t="n">
         <v>1282.031056763989</v>
@@ -5700,25 +5700,25 @@
         <v>1287.839608093953</v>
       </c>
       <c r="S19" t="n">
-        <v>1102.34841460749</v>
+        <v>1287.839608093953</v>
       </c>
       <c r="T19" t="n">
-        <v>1102.34841460749</v>
+        <v>1287.839608093953</v>
       </c>
       <c r="U19" t="n">
-        <v>1102.34841460749</v>
+        <v>1287.839608093953</v>
       </c>
       <c r="V19" t="n">
-        <v>1102.34841460749</v>
+        <v>1287.839608093953</v>
       </c>
       <c r="W19" t="n">
-        <v>819.018012538668</v>
+        <v>1004.509206025131</v>
       </c>
       <c r="X19" t="n">
-        <v>819.018012538668</v>
+        <v>770.4288838081139</v>
       </c>
       <c r="Y19" t="n">
-        <v>819.018012538668</v>
+        <v>769.262170740198</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1367.041115157221</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="C20" t="n">
-        <v>1367.041115157221</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="D20" t="n">
-        <v>1021.828712339741</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="E20" t="n">
-        <v>676.616309522261</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="F20" t="n">
-        <v>331.4039067047809</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="G20" t="n">
-        <v>27.34082230314442</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H20" t="n">
         <v>27.34082230314442</v>
@@ -5752,19 +5752,19 @@
         <v>27.34082230314442</v>
       </c>
       <c r="J20" t="n">
-        <v>95.19447492671549</v>
+        <v>95.19447492671547</v>
       </c>
       <c r="K20" t="n">
         <v>229.8695478244281</v>
       </c>
       <c r="L20" t="n">
-        <v>420.9320297462637</v>
+        <v>420.9320297462639</v>
       </c>
       <c r="M20" t="n">
-        <v>654.1109890220052</v>
+        <v>654.1109890220056</v>
       </c>
       <c r="N20" t="n">
-        <v>894.0620030861662</v>
+        <v>894.0620030861666</v>
       </c>
       <c r="O20" t="n">
         <v>1111.973021646433</v>
@@ -5773,31 +5773,31 @@
         <v>1275.529383879705</v>
       </c>
       <c r="Q20" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R20" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S20" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="T20" t="n">
-        <v>1367.041115157221</v>
+        <v>1037.230886842094</v>
       </c>
       <c r="U20" t="n">
-        <v>1367.041115157221</v>
+        <v>781.6554557981262</v>
       </c>
       <c r="V20" t="n">
-        <v>1367.041115157221</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="W20" t="n">
-        <v>1367.041115157221</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="X20" t="n">
-        <v>1367.041115157221</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="Y20" t="n">
-        <v>1367.041115157221</v>
+        <v>673.9392945211946</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>361.7097834118214</v>
+        <v>308.0840201215719</v>
       </c>
       <c r="C21" t="n">
-        <v>361.7097834118214</v>
+        <v>157.4297896816641</v>
       </c>
       <c r="D21" t="n">
-        <v>231.6208160333018</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="E21" t="n">
-        <v>231.6208160333018</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="F21" t="n">
-        <v>231.6208160333018</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="G21" t="n">
-        <v>112.7467865064781</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="H21" t="n">
-        <v>35.9015896671175</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="I21" t="n">
         <v>27.34082230314442</v>
       </c>
       <c r="J21" t="n">
-        <v>250.2573874193691</v>
+        <v>55.52239243964175</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2248155482936</v>
+        <v>154.4898205685662</v>
       </c>
       <c r="L21" t="n">
-        <v>512.408387757693</v>
+        <v>317.6733927779657</v>
       </c>
       <c r="M21" t="n">
-        <v>715.4178839661821</v>
+        <v>520.6828889864547</v>
       </c>
       <c r="N21" t="n">
-        <v>939.5808025904114</v>
+        <v>738.4310616812093</v>
       </c>
       <c r="O21" t="n">
-        <v>1124.334973168425</v>
+        <v>923.1852322592229</v>
       </c>
       <c r="P21" t="n">
-        <v>1260.04999021455</v>
+        <v>1058.900249305348</v>
       </c>
       <c r="Q21" t="n">
-        <v>1318.324407352075</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="R21" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S21" t="n">
-        <v>1254.135937528826</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T21" t="n">
-        <v>1081.931685117233</v>
+        <v>1194.836862745628</v>
       </c>
       <c r="U21" t="n">
-        <v>871.946554190698</v>
+        <v>984.8517318190929</v>
       </c>
       <c r="V21" t="n">
-        <v>649.406552561765</v>
+        <v>762.31173019016</v>
       </c>
       <c r="W21" t="n">
-        <v>649.406552561765</v>
+        <v>532.1944843234469</v>
       </c>
       <c r="X21" t="n">
-        <v>649.406552561765</v>
+        <v>342.8874066734585</v>
       </c>
       <c r="Y21" t="n">
-        <v>470.0923356372722</v>
+        <v>308.0840201215719</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>267.9372754054155</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="C22" t="n">
-        <v>267.9372754054155</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="D22" t="n">
-        <v>267.9372754054155</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="E22" t="n">
-        <v>267.9372754054155</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="F22" t="n">
-        <v>267.9372754054155</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="G22" t="n">
-        <v>100.6773466673069</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="H22" t="n">
         <v>27.34082230314442</v>
@@ -5919,43 +5919,43 @@
         <v>570.4746716803968</v>
       </c>
       <c r="M22" t="n">
-        <v>908.817347681809</v>
+        <v>633.8084782787488</v>
       </c>
       <c r="N22" t="n">
-        <v>975.7526097561366</v>
+        <v>743.8890561905393</v>
       </c>
       <c r="O22" t="n">
-        <v>1276.176199806901</v>
+        <v>1044.312646241303</v>
       </c>
       <c r="P22" t="n">
-        <v>1305.390473947381</v>
+        <v>1282.031056763989</v>
       </c>
       <c r="Q22" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="R22" t="n">
-        <v>1287.839608093953</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="S22" t="n">
-        <v>1287.839608093953</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T22" t="n">
-        <v>1287.839608093953</v>
+        <v>1135.569689019542</v>
       </c>
       <c r="U22" t="n">
-        <v>1002.455041344715</v>
+        <v>850.1851222703036</v>
       </c>
       <c r="V22" t="n">
-        <v>736.4756961655391</v>
+        <v>584.2057770911279</v>
       </c>
       <c r="W22" t="n">
-        <v>453.1452940967168</v>
+        <v>300.8753750223055</v>
       </c>
       <c r="X22" t="n">
-        <v>453.1452940967168</v>
+        <v>66.79505280528858</v>
       </c>
       <c r="Y22" t="n">
-        <v>453.1452940967168</v>
+        <v>66.79505280528858</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>902.2029977433444</v>
+        <v>1273.375641901118</v>
       </c>
       <c r="C23" t="n">
-        <v>509.0274962462751</v>
+        <v>1273.375641901118</v>
       </c>
       <c r="D23" t="n">
-        <v>509.0274962462751</v>
+        <v>1212.997090530301</v>
       </c>
       <c r="E23" t="n">
-        <v>509.0274962462751</v>
+        <v>810.4135656468452</v>
       </c>
       <c r="F23" t="n">
-        <v>509.0274962462751</v>
+        <v>810.4135656468452</v>
       </c>
       <c r="G23" t="n">
-        <v>98.08097225220226</v>
+        <v>399.4670416527724</v>
       </c>
       <c r="H23" t="n">
         <v>98.08097225220226</v>
       </c>
       <c r="I23" t="n">
-        <v>45.1851209394322</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J23" t="n">
-        <v>113.0387735630032</v>
+        <v>374.1915860347539</v>
       </c>
       <c r="K23" t="n">
-        <v>247.7138464607158</v>
+        <v>508.8666589324665</v>
       </c>
       <c r="L23" t="n">
-        <v>667.9451916496085</v>
+        <v>699.9291408543023</v>
       </c>
       <c r="M23" t="n">
-        <v>1227.111063275082</v>
+        <v>933.108100130044</v>
       </c>
       <c r="N23" t="n">
-        <v>1786.276934900555</v>
+        <v>1173.059114194205</v>
       </c>
       <c r="O23" t="n">
-        <v>2004.187953460822</v>
+        <v>1390.970132754471</v>
       </c>
       <c r="P23" t="n">
-        <v>2167.744315694094</v>
+        <v>1740.63693128915</v>
       </c>
       <c r="Q23" t="n">
-        <v>2259.25604697161</v>
+        <v>2160.047934141823</v>
       </c>
       <c r="R23" t="n">
         <v>2259.25604697161</v>
       </c>
       <c r="S23" t="n">
-        <v>2143.244867627354</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="T23" t="n">
-        <v>2143.244867627354</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="U23" t="n">
-        <v>2004.761447138482</v>
+        <v>1673.870387612515</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.654637842</v>
+        <v>1673.870387612515</v>
       </c>
       <c r="W23" t="n">
-        <v>1291.655602810288</v>
+        <v>1673.870387612515</v>
       </c>
       <c r="X23" t="n">
-        <v>902.2029977433444</v>
+        <v>1673.870387612515</v>
       </c>
       <c r="Y23" t="n">
-        <v>902.2029977433444</v>
+        <v>1673.870387612515</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>791.0866094939984</v>
+        <v>791.0866094939979</v>
       </c>
       <c r="C24" t="n">
-        <v>640.4323790540905</v>
+        <v>640.4323790540901</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3434116755707</v>
+        <v>510.3434116755705</v>
       </c>
       <c r="E24" t="n">
-        <v>373.8969207864584</v>
+        <v>373.8969207864582</v>
       </c>
       <c r="F24" t="n">
-        <v>249.4651146695901</v>
+        <v>249.4651146695895</v>
       </c>
       <c r="G24" t="n">
-        <v>130.5910851427664</v>
+        <v>130.5910851427658</v>
       </c>
       <c r="H24" t="n">
-        <v>53.74588830340554</v>
+        <v>53.74588830340527</v>
       </c>
       <c r="I24" t="n">
-        <v>45.1851209394322</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J24" t="n">
-        <v>73.36669107592952</v>
+        <v>268.1016860556569</v>
       </c>
       <c r="K24" t="n">
-        <v>172.334119204854</v>
+        <v>775.5092262268079</v>
       </c>
       <c r="L24" t="n">
-        <v>613.1755098747484</v>
+        <v>938.6927984362073</v>
       </c>
       <c r="M24" t="n">
-        <v>816.1850060832375</v>
+        <v>1141.702294644696</v>
       </c>
       <c r="N24" t="n">
-        <v>1033.933178777992</v>
+        <v>1359.450467339451</v>
       </c>
       <c r="O24" t="n">
-        <v>1593.099050403465</v>
+        <v>1544.204637917464</v>
       </c>
       <c r="P24" t="n">
-        <v>2152.264922028939</v>
+        <v>1876.538266654839</v>
       </c>
       <c r="Q24" t="n">
-        <v>2210.539339166464</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="R24" t="n">
         <v>2259.25604697161</v>
@@ -6098,22 +6098,22 @@
         <v>2146.350869343215</v>
       </c>
       <c r="T24" t="n">
-        <v>1974.146616931622</v>
+        <v>1974.146616931621</v>
       </c>
       <c r="U24" t="n">
-        <v>1764.161486005087</v>
+        <v>1764.161486005086</v>
       </c>
       <c r="V24" t="n">
-        <v>1541.621484376154</v>
+        <v>1541.621484376153</v>
       </c>
       <c r="W24" t="n">
-        <v>1311.504238509441</v>
+        <v>1311.50423850944</v>
       </c>
       <c r="X24" t="n">
         <v>1122.197160859452</v>
       </c>
       <c r="Y24" t="n">
-        <v>942.8829439349597</v>
+        <v>942.8829439349593</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>854.7121730133497</v>
+        <v>823.4226784433638</v>
       </c>
       <c r="C25" t="n">
-        <v>684.5070550793389</v>
+        <v>653.217560509353</v>
       </c>
       <c r="D25" t="n">
-        <v>671.4937128238095</v>
+        <v>497.5844474118678</v>
       </c>
       <c r="E25" t="n">
-        <v>671.4937128238095</v>
+        <v>342.0256352710703</v>
       </c>
       <c r="F25" t="n">
-        <v>671.4937128238095</v>
+        <v>184.6997004840432</v>
       </c>
       <c r="G25" t="n">
-        <v>671.4937128238095</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H25" t="n">
-        <v>524.8538382295945</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I25" t="n">
-        <v>421.6554677518615</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J25" t="n">
-        <v>460.7677096245442</v>
+        <v>84.29736281211484</v>
       </c>
       <c r="K25" t="n">
-        <v>655.80358415716</v>
+        <v>279.3332373447306</v>
       </c>
       <c r="L25" t="n">
-        <v>964.7893171291139</v>
+        <v>588.3189703166845</v>
       </c>
       <c r="M25" t="n">
-        <v>1303.813444036014</v>
+        <v>927.3430972235844</v>
       </c>
       <c r="N25" t="n">
-        <v>1636.103988004928</v>
+        <v>1259.633641192499</v>
       </c>
       <c r="O25" t="n">
-        <v>1936.527578055692</v>
+        <v>1560.057231243263</v>
       </c>
       <c r="P25" t="n">
-        <v>2174.245988578378</v>
+        <v>1797.775641765949</v>
       </c>
       <c r="Q25" t="n">
-        <v>2259.25604697161</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="R25" t="n">
-        <v>2180.054539908342</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="S25" t="n">
-        <v>1994.563346421879</v>
+        <v>1697.294506672718</v>
       </c>
       <c r="T25" t="n">
-        <v>1763.0919202842</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="U25" t="n">
-        <v>1763.0919202842</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.112575105024</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="W25" t="n">
-        <v>1497.112575105024</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="X25" t="n">
-        <v>1263.032252888008</v>
+        <v>1231.742758318022</v>
       </c>
       <c r="Y25" t="n">
-        <v>1039.920191704651</v>
+        <v>1008.630697134665</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1156.697597576473</v>
+        <v>739.7466918370717</v>
       </c>
       <c r="C26" t="n">
-        <v>1156.697597576473</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="D26" t="n">
-        <v>917.5589356056801</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="E26" t="n">
-        <v>514.9754107222245</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="F26" t="n">
-        <v>98.08097225220226</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="G26" t="n">
-        <v>98.08097225220226</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="H26" t="n">
-        <v>98.08097225220226</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I26" t="n">
-        <v>45.1851209394322</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J26" t="n">
-        <v>374.1915860347539</v>
+        <v>113.0387735630032</v>
       </c>
       <c r="K26" t="n">
-        <v>508.8666589324665</v>
+        <v>654.7729771053926</v>
       </c>
       <c r="L26" t="n">
-        <v>699.9291408543023</v>
+        <v>1213.938848730866</v>
       </c>
       <c r="M26" t="n">
-        <v>1227.111063275082</v>
+        <v>1447.117808006607</v>
       </c>
       <c r="N26" t="n">
-        <v>1786.276934900555</v>
+        <v>1687.068822070768</v>
       </c>
       <c r="O26" t="n">
-        <v>2004.187953460822</v>
+        <v>1904.979840631035</v>
       </c>
       <c r="P26" t="n">
-        <v>2167.744315694094</v>
+        <v>2068.536202864307</v>
       </c>
       <c r="Q26" t="n">
-        <v>2259.25604697161</v>
+        <v>2160.047934141823</v>
       </c>
       <c r="R26" t="n">
         <v>2259.25604697161</v>
       </c>
       <c r="S26" t="n">
-        <v>2259.25604697161</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="T26" t="n">
-        <v>2259.25604697161</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="U26" t="n">
-        <v>2259.25604697161</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="V26" t="n">
-        <v>1917.149237675128</v>
+        <v>1801.138058330872</v>
       </c>
       <c r="W26" t="n">
-        <v>1546.150202643416</v>
+        <v>1430.139023299159</v>
       </c>
       <c r="X26" t="n">
-        <v>1156.697597576473</v>
+        <v>1040.686418232216</v>
       </c>
       <c r="Y26" t="n">
-        <v>1156.697597576473</v>
+        <v>1040.686418232216</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>791.0866094939976</v>
+        <v>791.0866094939979</v>
       </c>
       <c r="C27" t="n">
-        <v>640.4323790540898</v>
+        <v>640.43237905409</v>
       </c>
       <c r="D27" t="n">
-        <v>510.3434116755701</v>
+        <v>510.3434116755702</v>
       </c>
       <c r="E27" t="n">
-        <v>373.8969207864578</v>
+        <v>373.8969207864579</v>
       </c>
       <c r="F27" t="n">
-        <v>249.4651146695896</v>
+        <v>249.4651146695895</v>
       </c>
       <c r="G27" t="n">
-        <v>130.5910851427659</v>
+        <v>130.5910851427658</v>
       </c>
       <c r="H27" t="n">
-        <v>53.74588830340528</v>
+        <v>53.74588830340525</v>
       </c>
       <c r="I27" t="n">
-        <v>45.1851209394322</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J27" t="n">
-        <v>268.1016860556569</v>
+        <v>73.36669107592951</v>
       </c>
       <c r="K27" t="n">
-        <v>775.5092262268079</v>
+        <v>580.7742312470805</v>
       </c>
       <c r="L27" t="n">
-        <v>1036.303918727354</v>
+        <v>743.95780345648</v>
       </c>
       <c r="M27" t="n">
-        <v>1239.313414935843</v>
+        <v>946.967299664969</v>
       </c>
       <c r="N27" t="n">
-        <v>1457.061587630598</v>
+        <v>1164.715472359723</v>
       </c>
       <c r="O27" t="n">
-        <v>1641.815758208611</v>
+        <v>1349.469642937737</v>
       </c>
       <c r="P27" t="n">
-        <v>2200.981629834085</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q27" t="n">
-        <v>2259.25604697161</v>
+        <v>2210.539339166463</v>
       </c>
       <c r="R27" t="n">
         <v>2259.25604697161</v>
@@ -6335,22 +6335,22 @@
         <v>2146.350869343215</v>
       </c>
       <c r="T27" t="n">
-        <v>1974.146616931622</v>
+        <v>1974.146616931621</v>
       </c>
       <c r="U27" t="n">
-        <v>1764.161486005087</v>
+        <v>1764.161486005086</v>
       </c>
       <c r="V27" t="n">
-        <v>1541.621484376154</v>
+        <v>1541.621484376153</v>
       </c>
       <c r="W27" t="n">
-        <v>1311.504238509441</v>
+        <v>1311.50423850944</v>
       </c>
       <c r="X27" t="n">
         <v>1122.197160859452</v>
       </c>
       <c r="Y27" t="n">
-        <v>942.8829439349597</v>
+        <v>942.8829439349593</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>787.1064693764858</v>
+        <v>784.1612801805836</v>
       </c>
       <c r="C28" t="n">
-        <v>616.9013514424751</v>
+        <v>784.1612801805836</v>
       </c>
       <c r="D28" t="n">
-        <v>461.2682383449898</v>
+        <v>628.5281670830984</v>
       </c>
       <c r="E28" t="n">
-        <v>305.7094262041923</v>
+        <v>472.9693549423009</v>
       </c>
       <c r="F28" t="n">
-        <v>148.3834914171652</v>
+        <v>315.6434201552738</v>
       </c>
       <c r="G28" t="n">
         <v>148.3834914171652</v>
@@ -6381,7 +6381,7 @@
         <v>148.3834914171652</v>
       </c>
       <c r="I28" t="n">
-        <v>45.1851209394322</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J28" t="n">
         <v>84.29736281211484</v>
@@ -6408,28 +6408,28 @@
         <v>1882.785700159181</v>
       </c>
       <c r="R28" t="n">
-        <v>1803.584193095913</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="S28" t="n">
-        <v>1618.09299960945</v>
+        <v>1697.294506672718</v>
       </c>
       <c r="T28" t="n">
-        <v>1386.621573471771</v>
+        <v>1697.294506672718</v>
       </c>
       <c r="U28" t="n">
-        <v>1386.621573471771</v>
+        <v>1469.428966268078</v>
       </c>
       <c r="V28" t="n">
-        <v>1120.642228292595</v>
+        <v>1203.449621088902</v>
       </c>
       <c r="W28" t="n">
-        <v>1120.642228292595</v>
+        <v>1203.449621088902</v>
       </c>
       <c r="X28" t="n">
-        <v>972.3144880677871</v>
+        <v>969.3692988718849</v>
       </c>
       <c r="Y28" t="n">
-        <v>972.3144880677871</v>
+        <v>969.3692988718849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>483.5221010355345</v>
+        <v>1143.50250451014</v>
       </c>
       <c r="C29" t="n">
-        <v>483.5221010355345</v>
+        <v>1143.50250451014</v>
       </c>
       <c r="D29" t="n">
-        <v>98.08097225220226</v>
+        <v>1143.50250451014</v>
       </c>
       <c r="E29" t="n">
-        <v>98.08097225220226</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="F29" t="n">
-        <v>98.08097225220226</v>
+        <v>456.131644933505</v>
       </c>
       <c r="G29" t="n">
-        <v>98.08097225220226</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H29" t="n">
-        <v>98.08097225220226</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I29" t="n">
-        <v>45.1851209394322</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J29" t="n">
         <v>374.1915860347539</v>
       </c>
       <c r="K29" t="n">
-        <v>694.9770952338735</v>
+        <v>508.8666589324665</v>
       </c>
       <c r="L29" t="n">
-        <v>886.0395771557093</v>
+        <v>699.9291408543023</v>
       </c>
       <c r="M29" t="n">
-        <v>1119.218536431451</v>
+        <v>933.108100130044</v>
       </c>
       <c r="N29" t="n">
-        <v>1359.169550495612</v>
+        <v>1173.059114194205</v>
       </c>
       <c r="O29" t="n">
-        <v>1577.080569055878</v>
+        <v>1390.970132754471</v>
       </c>
       <c r="P29" t="n">
-        <v>1740.636931289151</v>
+        <v>1839.845044118937</v>
       </c>
       <c r="Q29" t="n">
-        <v>2160.047934141824</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="R29" t="n">
         <v>2259.25604697161</v>
       </c>
       <c r="S29" t="n">
-        <v>2143.244867627354</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="T29" t="n">
         <v>1929.445818656483</v>
       </c>
       <c r="U29" t="n">
-        <v>1673.870387612516</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="V29" t="n">
-        <v>1331.763578316034</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="W29" t="n">
-        <v>960.7645432843215</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="X29" t="n">
-        <v>960.7645432843215</v>
+        <v>1539.993213589539</v>
       </c>
       <c r="Y29" t="n">
-        <v>884.0168467469314</v>
+        <v>1143.50250451014</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>791.0866094939984</v>
+        <v>791.0866094939975</v>
       </c>
       <c r="C30" t="n">
-        <v>640.4323790540905</v>
+        <v>640.4323790540897</v>
       </c>
       <c r="D30" t="n">
-        <v>510.3434116755707</v>
+        <v>510.34341167557</v>
       </c>
       <c r="E30" t="n">
-        <v>373.8969207864584</v>
+        <v>373.8969207864577</v>
       </c>
       <c r="F30" t="n">
-        <v>249.4651146695901</v>
+        <v>249.4651146695895</v>
       </c>
       <c r="G30" t="n">
-        <v>130.5910851427664</v>
+        <v>130.5910851427658</v>
       </c>
       <c r="H30" t="n">
-        <v>53.74588830340548</v>
+        <v>53.74588830340527</v>
       </c>
       <c r="I30" t="n">
-        <v>45.1851209394322</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J30" t="n">
-        <v>268.1016860556569</v>
+        <v>73.36669107592951</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0691141845814</v>
+        <v>499.9602755335624</v>
       </c>
       <c r="L30" t="n">
-        <v>926.2349858100548</v>
+        <v>663.1438477429618</v>
       </c>
       <c r="M30" t="n">
-        <v>1338.320906335947</v>
+        <v>866.1533439514509</v>
       </c>
       <c r="N30" t="n">
-        <v>1556.069079030701</v>
+        <v>1083.901516646205</v>
       </c>
       <c r="O30" t="n">
-        <v>1740.823249608715</v>
+        <v>1268.655687224219</v>
       </c>
       <c r="P30" t="n">
-        <v>1876.538266654839</v>
+        <v>1827.821558849692</v>
       </c>
       <c r="Q30" t="n">
-        <v>2259.25604697161</v>
+        <v>2210.539339166463</v>
       </c>
       <c r="R30" t="n">
-        <v>2259.25604697161</v>
+        <v>2259.256046971609</v>
       </c>
       <c r="S30" t="n">
-        <v>2146.350869343215</v>
+        <v>2146.350869343214</v>
       </c>
       <c r="T30" t="n">
-        <v>1974.146616931622</v>
+        <v>1974.146616931621</v>
       </c>
       <c r="U30" t="n">
-        <v>1764.161486005087</v>
+        <v>1764.161486005086</v>
       </c>
       <c r="V30" t="n">
-        <v>1541.621484376154</v>
+        <v>1541.621484376153</v>
       </c>
       <c r="W30" t="n">
-        <v>1311.504238509441</v>
+        <v>1311.50423850944</v>
       </c>
       <c r="X30" t="n">
         <v>1122.197160859452</v>
       </c>
       <c r="Y30" t="n">
-        <v>942.8829439349597</v>
+        <v>942.8829439349588</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.8615970428762</v>
+        <v>683.9080988987528</v>
       </c>
       <c r="C31" t="n">
-        <v>450.6564791088654</v>
+        <v>513.702980964742</v>
       </c>
       <c r="D31" t="n">
-        <v>295.0233660113802</v>
+        <v>358.0698678672567</v>
       </c>
       <c r="E31" t="n">
-        <v>295.0233660113802</v>
+        <v>202.5110557264592</v>
       </c>
       <c r="F31" t="n">
-        <v>295.0233660113802</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="G31" t="n">
-        <v>295.0233660113802</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H31" t="n">
-        <v>148.3834914171652</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I31" t="n">
-        <v>45.1851209394322</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J31" t="n">
         <v>84.29736281211484</v>
@@ -6651,22 +6651,22 @@
         <v>1697.294506672718</v>
       </c>
       <c r="T31" t="n">
-        <v>1640.763929731414</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.379362982176</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="V31" t="n">
-        <v>1089.400017803</v>
+        <v>1375.558580842233</v>
       </c>
       <c r="W31" t="n">
-        <v>806.0696157341774</v>
+        <v>1092.228178773411</v>
       </c>
       <c r="X31" t="n">
-        <v>806.0696157341774</v>
+        <v>1092.228178773411</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.0696157341774</v>
+        <v>869.116117590054</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1277.379678533117</v>
+        <v>911.6110211297305</v>
       </c>
       <c r="C32" t="n">
-        <v>1277.379678533117</v>
+        <v>911.6110211297305</v>
       </c>
       <c r="D32" t="n">
-        <v>1160.101239217531</v>
+        <v>911.6110211297305</v>
       </c>
       <c r="E32" t="n">
-        <v>757.5177143340752</v>
+        <v>509.0274962462751</v>
       </c>
       <c r="F32" t="n">
-        <v>757.5177143340752</v>
+        <v>509.0274962462751</v>
       </c>
       <c r="G32" t="n">
-        <v>346.5711903400023</v>
+        <v>98.08097225220226</v>
       </c>
       <c r="H32" t="n">
-        <v>45.1851209394322</v>
+        <v>98.08097225220226</v>
       </c>
       <c r="I32" t="n">
         <v>45.1851209394322</v>
       </c>
       <c r="J32" t="n">
-        <v>194.8152183097059</v>
+        <v>374.1915860347539</v>
       </c>
       <c r="K32" t="n">
-        <v>753.9810899351793</v>
+        <v>654.7729771053929</v>
       </c>
       <c r="L32" t="n">
-        <v>1313.146961560653</v>
+        <v>1213.938848730866</v>
       </c>
       <c r="M32" t="n">
-        <v>1546.325920836394</v>
+        <v>1447.117808006608</v>
       </c>
       <c r="N32" t="n">
-        <v>1786.276934900555</v>
+        <v>1687.068822070769</v>
       </c>
       <c r="O32" t="n">
-        <v>2004.187953460822</v>
+        <v>1904.979840631035</v>
       </c>
       <c r="P32" t="n">
-        <v>2167.744315694094</v>
+        <v>2068.536202864308</v>
       </c>
       <c r="Q32" t="n">
-        <v>2259.25604697161</v>
+        <v>2160.047934141824</v>
       </c>
       <c r="R32" t="n">
         <v>2259.25604697161</v>
@@ -6736,16 +6736,16 @@
         <v>1673.870387612516</v>
       </c>
       <c r="V32" t="n">
-        <v>1673.870387612516</v>
+        <v>1331.763578316034</v>
       </c>
       <c r="W32" t="n">
-        <v>1673.870387612516</v>
+        <v>1312.105766841127</v>
       </c>
       <c r="X32" t="n">
-        <v>1673.870387612516</v>
+        <v>1312.105766841127</v>
       </c>
       <c r="Y32" t="n">
-        <v>1277.379678533117</v>
+        <v>1312.105766841127</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>791.0866094939976</v>
+        <v>791.0866094939984</v>
       </c>
       <c r="C33" t="n">
-        <v>640.4323790540898</v>
+        <v>640.4323790540905</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3434116755701</v>
+        <v>510.3434116755707</v>
       </c>
       <c r="E33" t="n">
-        <v>373.8969207864578</v>
+        <v>373.8969207864584</v>
       </c>
       <c r="F33" t="n">
-        <v>249.4651146695896</v>
+        <v>249.4651146695901</v>
       </c>
       <c r="G33" t="n">
         <v>130.5910851427659</v>
@@ -6782,19 +6782,19 @@
         <v>268.1016860556569</v>
       </c>
       <c r="K33" t="n">
-        <v>499.9602755335633</v>
+        <v>775.5092262268079</v>
       </c>
       <c r="L33" t="n">
-        <v>663.1438477429627</v>
+        <v>938.6927984362073</v>
       </c>
       <c r="M33" t="n">
-        <v>866.1533439514518</v>
+        <v>1141.702294644696</v>
       </c>
       <c r="N33" t="n">
-        <v>1083.901516646206</v>
+        <v>1359.450467339451</v>
       </c>
       <c r="O33" t="n">
-        <v>1268.65568722422</v>
+        <v>1544.204637917464</v>
       </c>
       <c r="P33" t="n">
         <v>1827.821558849693</v>
@@ -6824,7 +6824,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y33" t="n">
-        <v>942.8829439349589</v>
+        <v>942.8829439349597</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1477.476619521239</v>
+        <v>280.2260695606234</v>
       </c>
       <c r="C34" t="n">
-        <v>1307.271501587228</v>
+        <v>110.0209516266126</v>
       </c>
       <c r="D34" t="n">
-        <v>1151.638388489743</v>
+        <v>110.0209516266126</v>
       </c>
       <c r="E34" t="n">
-        <v>996.0795763489452</v>
+        <v>110.0209516266126</v>
       </c>
       <c r="F34" t="n">
-        <v>838.7536415619181</v>
+        <v>110.0209516266126</v>
       </c>
       <c r="G34" t="n">
-        <v>671.4937128238095</v>
+        <v>110.0209516266126</v>
       </c>
       <c r="H34" t="n">
-        <v>524.8538382295945</v>
+        <v>110.0209516266126</v>
       </c>
       <c r="I34" t="n">
-        <v>421.6554677518615</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="J34" t="n">
-        <v>460.7677096245442</v>
+        <v>84.29736281211484</v>
       </c>
       <c r="K34" t="n">
-        <v>655.80358415716</v>
+        <v>279.3332373447306</v>
       </c>
       <c r="L34" t="n">
-        <v>964.7893171291139</v>
+        <v>588.3189703166845</v>
       </c>
       <c r="M34" t="n">
-        <v>1303.813444036014</v>
+        <v>927.3430972235844</v>
       </c>
       <c r="N34" t="n">
-        <v>1636.103988004928</v>
+        <v>1259.633641192499</v>
       </c>
       <c r="O34" t="n">
-        <v>1936.527578055692</v>
+        <v>1560.057231243263</v>
       </c>
       <c r="P34" t="n">
-        <v>2174.245988578378</v>
+        <v>1797.775641765949</v>
       </c>
       <c r="Q34" t="n">
-        <v>2259.25604697161</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="R34" t="n">
-        <v>2259.25604697161</v>
+        <v>1803.584193095913</v>
       </c>
       <c r="S34" t="n">
-        <v>2073.764853485147</v>
+        <v>1803.584193095913</v>
       </c>
       <c r="T34" t="n">
-        <v>1842.293427347468</v>
+        <v>1572.112766958234</v>
       </c>
       <c r="U34" t="n">
-        <v>1842.293427347468</v>
+        <v>1286.728200208995</v>
       </c>
       <c r="V34" t="n">
-        <v>1842.293427347468</v>
+        <v>1020.748855029819</v>
       </c>
       <c r="W34" t="n">
-        <v>1662.68463821254</v>
+        <v>737.418452960997</v>
       </c>
       <c r="X34" t="n">
-        <v>1662.68463821254</v>
+        <v>503.3381307439801</v>
       </c>
       <c r="Y34" t="n">
-        <v>1662.68463821254</v>
+        <v>280.2260695606234</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1062.978030755585</v>
+        <v>717.7656279381047</v>
       </c>
       <c r="C35" t="n">
         <v>717.7656279381047</v>
       </c>
       <c r="D35" t="n">
-        <v>372.5532251206246</v>
+        <v>717.7656279381047</v>
       </c>
       <c r="E35" t="n">
-        <v>27.34082230314443</v>
+        <v>372.5532251206245</v>
       </c>
       <c r="F35" t="n">
-        <v>27.34082230314443</v>
+        <v>372.5532251206245</v>
       </c>
       <c r="G35" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="H35" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="I35" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J35" t="n">
-        <v>95.19447492671549</v>
+        <v>95.19447492671547</v>
       </c>
       <c r="K35" t="n">
         <v>229.8695478244281</v>
@@ -6964,25 +6964,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S35" t="n">
-        <v>1276.777079726456</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="T35" t="n">
-        <v>1062.978030755585</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="U35" t="n">
-        <v>1062.978030755585</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="V35" t="n">
-        <v>1062.978030755585</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="W35" t="n">
-        <v>1062.978030755585</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="X35" t="n">
-        <v>1062.978030755585</v>
+        <v>905.8175329954847</v>
       </c>
       <c r="Y35" t="n">
-        <v>1062.978030755585</v>
+        <v>717.7656279381047</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>433.3155731589882</v>
+        <v>314.4415436321645</v>
       </c>
       <c r="C36" t="n">
-        <v>282.6613427190804</v>
+        <v>163.7873131922567</v>
       </c>
       <c r="D36" t="n">
-        <v>282.6613427190804</v>
+        <v>163.7873131922567</v>
       </c>
       <c r="E36" t="n">
-        <v>146.2148518299681</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="F36" t="n">
-        <v>146.2148518299681</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="G36" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="H36" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="I36" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J36" t="n">
-        <v>250.2573874193691</v>
+        <v>151.8003357305914</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2248155482936</v>
+        <v>250.7677638595159</v>
       </c>
       <c r="L36" t="n">
-        <v>512.408387757693</v>
+        <v>413.9513360689153</v>
       </c>
       <c r="M36" t="n">
-        <v>715.4178839661821</v>
+        <v>616.9608322774044</v>
       </c>
       <c r="N36" t="n">
-        <v>933.1660566609366</v>
+        <v>834.7090049721589</v>
       </c>
       <c r="O36" t="n">
         <v>1173.051680973571</v>
@@ -7043,25 +7043,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S36" t="n">
-        <v>1367.041115157221</v>
+        <v>1254.135937528826</v>
       </c>
       <c r="T36" t="n">
-        <v>1367.041115157221</v>
+        <v>1081.931685117233</v>
       </c>
       <c r="U36" t="n">
-        <v>1217.083372020088</v>
+        <v>871.946554190698</v>
       </c>
       <c r="V36" t="n">
-        <v>994.5433703911553</v>
+        <v>649.406552561765</v>
       </c>
       <c r="W36" t="n">
-        <v>764.4261245244422</v>
+        <v>649.406552561765</v>
       </c>
       <c r="X36" t="n">
-        <v>764.4261245244422</v>
+        <v>466.2378780731258</v>
       </c>
       <c r="Y36" t="n">
-        <v>585.1119075999495</v>
+        <v>466.2378780731258</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>927.5288609750364</v>
+        <v>297.7991215189861</v>
       </c>
       <c r="C37" t="n">
-        <v>757.3237430410256</v>
+        <v>297.7991215189861</v>
       </c>
       <c r="D37" t="n">
-        <v>757.3237430410256</v>
+        <v>297.7991215189861</v>
       </c>
       <c r="E37" t="n">
-        <v>601.7649309002281</v>
+        <v>297.7991215189861</v>
       </c>
       <c r="F37" t="n">
-        <v>444.438996113201</v>
+        <v>297.7991215189861</v>
       </c>
       <c r="G37" t="n">
-        <v>277.1790673750924</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="H37" t="n">
         <v>130.5391927808774</v>
       </c>
       <c r="I37" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J37" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="K37" t="n">
         <v>57.52162409307883</v>
@@ -7110,37 +7110,37 @@
         <v>1037.140577035359</v>
       </c>
       <c r="O37" t="n">
-        <v>1252.816782623509</v>
+        <v>1337.564167086123</v>
       </c>
       <c r="P37" t="n">
-        <v>1282.03105676399</v>
+        <v>1366.778441226604</v>
       </c>
       <c r="Q37" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="R37" t="n">
-        <v>1287.839608093954</v>
+        <v>1287.839608093953</v>
       </c>
       <c r="S37" t="n">
-        <v>1287.839608093954</v>
+        <v>1102.34841460749</v>
       </c>
       <c r="T37" t="n">
-        <v>1287.839608093954</v>
+        <v>870.8769884698113</v>
       </c>
       <c r="U37" t="n">
-        <v>1287.839608093954</v>
+        <v>870.8769884698113</v>
       </c>
       <c r="V37" t="n">
-        <v>1287.839608093954</v>
+        <v>604.8976432906355</v>
       </c>
       <c r="W37" t="n">
-        <v>1004.509206025131</v>
+        <v>604.8976432906355</v>
       </c>
       <c r="X37" t="n">
-        <v>927.5288609750364</v>
+        <v>483.0071402102874</v>
       </c>
       <c r="Y37" t="n">
-        <v>927.5288609750364</v>
+        <v>483.0071402102874</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>439.5486465016451</v>
+        <v>1115.873882068355</v>
       </c>
       <c r="C38" t="n">
-        <v>439.5486465016451</v>
+        <v>1115.873882068355</v>
       </c>
       <c r="D38" t="n">
-        <v>439.5486465016451</v>
+        <v>770.6614792508747</v>
       </c>
       <c r="E38" t="n">
-        <v>94.33624368416491</v>
+        <v>770.6614792508747</v>
       </c>
       <c r="F38" t="n">
-        <v>94.33624368416491</v>
+        <v>425.4490764333946</v>
       </c>
       <c r="G38" t="n">
-        <v>27.34082230314443</v>
+        <v>80.23667361591448</v>
       </c>
       <c r="H38" t="n">
-        <v>27.34082230314443</v>
+        <v>80.23667361591448</v>
       </c>
       <c r="I38" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J38" t="n">
-        <v>95.19447492671534</v>
+        <v>95.19447492671547</v>
       </c>
       <c r="K38" t="n">
-        <v>229.8695478244279</v>
+        <v>229.8695478244281</v>
       </c>
       <c r="L38" t="n">
-        <v>420.9320297462638</v>
+        <v>420.9320297462639</v>
       </c>
       <c r="M38" t="n">
-        <v>654.1109890220055</v>
+        <v>654.1109890220056</v>
       </c>
       <c r="N38" t="n">
-        <v>894.0620030861664</v>
+        <v>894.0620030861666</v>
       </c>
       <c r="O38" t="n">
         <v>1111.973021646433</v>
@@ -7195,7 +7195,7 @@
         <v>1275.529383879705</v>
       </c>
       <c r="Q38" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R38" t="n">
         <v>1367.041115157221</v>
@@ -7204,22 +7204,22 @@
         <v>1251.029935812965</v>
       </c>
       <c r="T38" t="n">
-        <v>1037.230886842094</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="U38" t="n">
-        <v>781.6554557981267</v>
+        <v>1115.873882068355</v>
       </c>
       <c r="V38" t="n">
-        <v>439.5486465016451</v>
+        <v>1115.873882068355</v>
       </c>
       <c r="W38" t="n">
-        <v>439.5486465016451</v>
+        <v>1115.873882068355</v>
       </c>
       <c r="X38" t="n">
-        <v>439.5486465016451</v>
+        <v>1115.873882068355</v>
       </c>
       <c r="Y38" t="n">
-        <v>439.5486465016451</v>
+        <v>1115.873882068355</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>373.6250835124586</v>
+        <v>585.8353262730234</v>
       </c>
       <c r="C39" t="n">
-        <v>373.6250835124586</v>
+        <v>435.1810958331156</v>
       </c>
       <c r="D39" t="n">
-        <v>373.6250835124586</v>
+        <v>365.0643161484855</v>
       </c>
       <c r="E39" t="n">
-        <v>237.1785926233463</v>
+        <v>228.6178252593732</v>
       </c>
       <c r="F39" t="n">
-        <v>112.7467865064781</v>
+        <v>104.186019142505</v>
       </c>
       <c r="G39" t="n">
-        <v>112.7467865064781</v>
+        <v>104.186019142505</v>
       </c>
       <c r="H39" t="n">
-        <v>35.90158966711751</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="I39" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J39" t="n">
-        <v>55.52239243964175</v>
+        <v>250.2573874193691</v>
       </c>
       <c r="K39" t="n">
-        <v>154.4898205685662</v>
+        <v>349.2248155482936</v>
       </c>
       <c r="L39" t="n">
-        <v>317.6733927779657</v>
+        <v>512.408387757693</v>
       </c>
       <c r="M39" t="n">
-        <v>520.6828889864547</v>
+        <v>715.4178839661821</v>
       </c>
       <c r="N39" t="n">
-        <v>738.4310616812093</v>
+        <v>933.1660566609366</v>
       </c>
       <c r="O39" t="n">
-        <v>923.1852322592229</v>
+        <v>1117.92022723895</v>
       </c>
       <c r="P39" t="n">
-        <v>1058.900249305348</v>
+        <v>1260.04999021455</v>
       </c>
       <c r="Q39" t="n">
-        <v>1367.041115157221</v>
+        <v>1318.324407352075</v>
       </c>
       <c r="R39" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S39" t="n">
-        <v>1254.135937528826</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T39" t="n">
-        <v>1081.931685117233</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="U39" t="n">
-        <v>871.9465541906982</v>
+        <v>1157.055984230686</v>
       </c>
       <c r="V39" t="n">
-        <v>649.4065525617652</v>
+        <v>1157.055984230686</v>
       </c>
       <c r="W39" t="n">
-        <v>552.9393004369513</v>
+        <v>926.938738363973</v>
       </c>
       <c r="X39" t="n">
-        <v>552.9393004369513</v>
+        <v>737.6316607139847</v>
       </c>
       <c r="Y39" t="n">
-        <v>373.6250835124586</v>
+        <v>737.6316607139847</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.7950528052888</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="C40" t="n">
-        <v>27.34082230314443</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="D40" t="n">
-        <v>27.34082230314443</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="E40" t="n">
-        <v>27.34082230314443</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="F40" t="n">
-        <v>27.34082230314443</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="G40" t="n">
-        <v>27.34082230314443</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="H40" t="n">
-        <v>27.34082230314443</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="I40" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J40" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="K40" t="n">
-        <v>222.3766968357602</v>
+        <v>57.52162409307883</v>
       </c>
       <c r="L40" t="n">
-        <v>531.3624298077142</v>
+        <v>115.5814280042561</v>
       </c>
       <c r="M40" t="n">
-        <v>594.6962364060662</v>
+        <v>411.598512221625</v>
       </c>
       <c r="N40" t="n">
-        <v>828.8991145837713</v>
+        <v>743.8890561905393</v>
       </c>
       <c r="O40" t="n">
-        <v>1129.322704634535</v>
+        <v>1044.312646241303</v>
       </c>
       <c r="P40" t="n">
-        <v>1367.041115157221</v>
+        <v>1282.031056763989</v>
       </c>
       <c r="Q40" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="R40" t="n">
-        <v>1367.041115157221</v>
+        <v>1287.839608093953</v>
       </c>
       <c r="S40" t="n">
-        <v>1367.041115157221</v>
+        <v>1102.34841460749</v>
       </c>
       <c r="T40" t="n">
-        <v>1135.569689019542</v>
+        <v>870.8769884698113</v>
       </c>
       <c r="U40" t="n">
-        <v>850.1851222703039</v>
+        <v>585.4924217205729</v>
       </c>
       <c r="V40" t="n">
-        <v>584.2057770911281</v>
+        <v>549.8275336891957</v>
       </c>
       <c r="W40" t="n">
-        <v>300.8753750223057</v>
+        <v>549.8275336891957</v>
       </c>
       <c r="X40" t="n">
-        <v>66.7950528052888</v>
+        <v>315.7472114721787</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.7950528052888</v>
+        <v>315.7472114721787</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1037.230886842094</v>
+        <v>770.6614792508747</v>
       </c>
       <c r="C41" t="n">
-        <v>692.0184840246141</v>
+        <v>770.6614792508747</v>
       </c>
       <c r="D41" t="n">
-        <v>692.0184840246141</v>
+        <v>770.6614792508747</v>
       </c>
       <c r="E41" t="n">
-        <v>346.8060812071339</v>
+        <v>770.6614792508747</v>
       </c>
       <c r="F41" t="n">
-        <v>328.7268917037146</v>
+        <v>425.4490764333946</v>
       </c>
       <c r="G41" t="n">
-        <v>328.7268917037146</v>
+        <v>80.23667361591448</v>
       </c>
       <c r="H41" t="n">
-        <v>27.34082230314443</v>
+        <v>80.23667361591448</v>
       </c>
       <c r="I41" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J41" t="n">
-        <v>95.19447492671543</v>
+        <v>95.19447492671547</v>
       </c>
       <c r="K41" t="n">
         <v>229.8695478244281</v>
       </c>
       <c r="L41" t="n">
-        <v>420.9320297462638</v>
+        <v>420.9320297462639</v>
       </c>
       <c r="M41" t="n">
-        <v>654.1109890220055</v>
+        <v>654.1109890220056</v>
       </c>
       <c r="N41" t="n">
-        <v>894.0620030861664</v>
+        <v>894.0620030861666</v>
       </c>
       <c r="O41" t="n">
         <v>1111.973021646433</v>
@@ -7432,31 +7432,31 @@
         <v>1275.529383879705</v>
       </c>
       <c r="Q41" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R41" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S41" t="n">
-        <v>1251.029935812965</v>
+        <v>1326.567337518227</v>
       </c>
       <c r="T41" t="n">
-        <v>1037.230886842094</v>
+        <v>1112.768288547356</v>
       </c>
       <c r="U41" t="n">
-        <v>1037.230886842094</v>
+        <v>1112.768288547356</v>
       </c>
       <c r="V41" t="n">
-        <v>1037.230886842094</v>
+        <v>770.6614792508747</v>
       </c>
       <c r="W41" t="n">
-        <v>1037.230886842094</v>
+        <v>770.6614792508747</v>
       </c>
       <c r="X41" t="n">
-        <v>1037.230886842094</v>
+        <v>770.6614792508747</v>
       </c>
       <c r="Y41" t="n">
-        <v>1037.230886842094</v>
+        <v>770.6614792508747</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>643.15334347919</v>
+        <v>444.5305110106842</v>
       </c>
       <c r="C42" t="n">
-        <v>492.4991130392822</v>
+        <v>293.8762805707764</v>
       </c>
       <c r="D42" t="n">
-        <v>492.4991130392822</v>
+        <v>163.7873131922567</v>
       </c>
       <c r="E42" t="n">
-        <v>356.05262215017</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="F42" t="n">
-        <v>231.6208160333018</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="G42" t="n">
-        <v>112.7467865064781</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="H42" t="n">
-        <v>35.90158966711751</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="I42" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J42" t="n">
         <v>55.52239243964175</v>
@@ -7511,31 +7511,31 @@
         <v>1058.900249305348</v>
       </c>
       <c r="Q42" t="n">
-        <v>1318.324407352075</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="R42" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S42" t="n">
-        <v>1367.041115157221</v>
+        <v>1254.135937528826</v>
       </c>
       <c r="T42" t="n">
-        <v>1367.041115157221</v>
+        <v>1081.931685117233</v>
       </c>
       <c r="U42" t="n">
-        <v>1367.041115157221</v>
+        <v>871.946554190698</v>
       </c>
       <c r="V42" t="n">
-        <v>1204.381140711357</v>
+        <v>674.6477568773973</v>
       </c>
       <c r="W42" t="n">
-        <v>974.263894844644</v>
+        <v>444.5305110106842</v>
       </c>
       <c r="X42" t="n">
-        <v>974.263894844644</v>
+        <v>444.5305110106842</v>
       </c>
       <c r="Y42" t="n">
-        <v>794.9496779201513</v>
+        <v>444.5305110106842</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.34082230314443</v>
+        <v>684.0991503539034</v>
       </c>
       <c r="C43" t="n">
-        <v>27.34082230314443</v>
+        <v>513.8940324198926</v>
       </c>
       <c r="D43" t="n">
-        <v>27.34082230314443</v>
+        <v>513.8940324198926</v>
       </c>
       <c r="E43" t="n">
-        <v>27.34082230314443</v>
+        <v>358.3352202790951</v>
       </c>
       <c r="F43" t="n">
-        <v>27.34082230314443</v>
+        <v>201.009285492068</v>
       </c>
       <c r="G43" t="n">
-        <v>27.34082230314443</v>
+        <v>33.7493567539594</v>
       </c>
       <c r="H43" t="n">
-        <v>27.34082230314443</v>
+        <v>33.7493567539594</v>
       </c>
       <c r="I43" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J43" t="n">
-        <v>27.34082230314443</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="K43" t="n">
         <v>57.52162409307883</v>
@@ -7584,7 +7584,7 @@
         <v>1037.140577035359</v>
       </c>
       <c r="O43" t="n">
-        <v>1129.322704634535</v>
+        <v>1337.564167086123</v>
       </c>
       <c r="P43" t="n">
         <v>1367.041115157221</v>
@@ -7593,28 +7593,28 @@
         <v>1367.041115157221</v>
       </c>
       <c r="R43" t="n">
-        <v>1287.839608093954</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="S43" t="n">
-        <v>1287.839608093954</v>
+        <v>1181.549921670758</v>
       </c>
       <c r="T43" t="n">
-        <v>1056.368181956274</v>
+        <v>950.0784955330791</v>
       </c>
       <c r="U43" t="n">
-        <v>1033.842952951516</v>
+        <v>950.0784955330791</v>
       </c>
       <c r="V43" t="n">
-        <v>767.8636077723404</v>
+        <v>684.0991503539034</v>
       </c>
       <c r="W43" t="n">
-        <v>484.533205703518</v>
+        <v>684.0991503539034</v>
       </c>
       <c r="X43" t="n">
-        <v>250.4528834865011</v>
+        <v>684.0991503539034</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.34082230314443</v>
+        <v>684.0991503539034</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>766.2532812957736</v>
+        <v>381.6227430164846</v>
       </c>
       <c r="C44" t="n">
-        <v>766.2532812957736</v>
+        <v>381.6227430164846</v>
       </c>
       <c r="D44" t="n">
-        <v>673.9392945211946</v>
+        <v>381.6227430164846</v>
       </c>
       <c r="E44" t="n">
-        <v>673.9392945211946</v>
+        <v>381.6227430164846</v>
       </c>
       <c r="F44" t="n">
-        <v>328.7268917037146</v>
+        <v>381.6227430164846</v>
       </c>
       <c r="G44" t="n">
-        <v>328.7268917037146</v>
+        <v>381.6227430164846</v>
       </c>
       <c r="H44" t="n">
-        <v>27.34082230314442</v>
+        <v>80.23667361591448</v>
       </c>
       <c r="I44" t="n">
         <v>27.34082230314442</v>
       </c>
       <c r="J44" t="n">
-        <v>95.19447492671543</v>
+        <v>95.19447492671549</v>
       </c>
       <c r="K44" t="n">
         <v>229.8695478244281</v>
       </c>
       <c r="L44" t="n">
-        <v>420.9320297462639</v>
+        <v>420.9320297462634</v>
       </c>
       <c r="M44" t="n">
-        <v>654.1109890220055</v>
+        <v>654.1109890220052</v>
       </c>
       <c r="N44" t="n">
         <v>894.0620030861662</v>
@@ -7675,25 +7675,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S44" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="T44" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="U44" t="n">
-        <v>1111.465684113254</v>
+        <v>1068.941955130446</v>
       </c>
       <c r="V44" t="n">
-        <v>1111.465684113254</v>
+        <v>726.8351458339647</v>
       </c>
       <c r="W44" t="n">
-        <v>766.2532812957736</v>
+        <v>381.6227430164846</v>
       </c>
       <c r="X44" t="n">
-        <v>766.2532812957736</v>
+        <v>381.6227430164846</v>
       </c>
       <c r="Y44" t="n">
-        <v>766.2532812957736</v>
+        <v>381.6227430164846</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>641.8293083239848</v>
+        <v>654.368281330886</v>
       </c>
       <c r="C45" t="n">
-        <v>498.1562743009337</v>
+        <v>503.7140508909782</v>
       </c>
       <c r="D45" t="n">
-        <v>368.067306922414</v>
+        <v>373.6250835124586</v>
       </c>
       <c r="E45" t="n">
-        <v>231.6208160333018</v>
+        <v>237.1785926233463</v>
       </c>
       <c r="F45" t="n">
-        <v>231.6208160333018</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="G45" t="n">
         <v>112.7467865064781</v>
@@ -7727,22 +7727,22 @@
         <v>27.34082230314442</v>
       </c>
       <c r="J45" t="n">
-        <v>250.2573874193691</v>
+        <v>55.52239243964175</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2248155482936</v>
+        <v>201.7286103276271</v>
       </c>
       <c r="L45" t="n">
-        <v>512.408387757693</v>
+        <v>364.9121825370265</v>
       </c>
       <c r="M45" t="n">
-        <v>715.4178839661821</v>
+        <v>567.9216787455156</v>
       </c>
       <c r="N45" t="n">
-        <v>933.1660566609366</v>
+        <v>785.6698514402701</v>
       </c>
       <c r="O45" t="n">
-        <v>1173.051680973571</v>
+        <v>970.4240220182837</v>
       </c>
       <c r="P45" t="n">
         <v>1308.766698019696</v>
@@ -7754,25 +7754,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S45" t="n">
-        <v>1254.135937528826</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T45" t="n">
-        <v>1081.931685117233</v>
+        <v>1194.836862745628</v>
       </c>
       <c r="U45" t="n">
-        <v>871.946554190698</v>
+        <v>984.8517318190929</v>
       </c>
       <c r="V45" t="n">
-        <v>871.946554190698</v>
+        <v>762.31173019016</v>
       </c>
       <c r="W45" t="n">
-        <v>641.8293083239848</v>
+        <v>762.31173019016</v>
       </c>
       <c r="X45" t="n">
-        <v>641.8293083239848</v>
+        <v>762.31173019016</v>
       </c>
       <c r="Y45" t="n">
-        <v>641.8293083239848</v>
+        <v>762.31173019016</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>927.5288609750364</v>
+        <v>520.3646811160613</v>
       </c>
       <c r="C46" t="n">
-        <v>757.3237430410256</v>
+        <v>350.1595631820505</v>
       </c>
       <c r="D46" t="n">
-        <v>757.3237430410256</v>
+        <v>350.1595631820505</v>
       </c>
       <c r="E46" t="n">
-        <v>601.7649309002281</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="F46" t="n">
-        <v>444.438996113201</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="G46" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="H46" t="n">
-        <v>130.5391927808774</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="I46" t="n">
         <v>27.34082230314442</v>
       </c>
       <c r="J46" t="n">
-        <v>66.45306417582707</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="K46" t="n">
-        <v>261.4889387084428</v>
+        <v>57.78429802369567</v>
       </c>
       <c r="L46" t="n">
-        <v>325.0573857556817</v>
+        <v>366.7700309956496</v>
       </c>
       <c r="M46" t="n">
-        <v>663.4000617570939</v>
+        <v>705.1127069970619</v>
       </c>
       <c r="N46" t="n">
-        <v>995.6906057260082</v>
+        <v>1037.403250965976</v>
       </c>
       <c r="O46" t="n">
-        <v>1044.312646241303</v>
+        <v>1337.82684101674</v>
       </c>
       <c r="P46" t="n">
-        <v>1282.031056763989</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="Q46" t="n">
         <v>1367.041115157221</v>
@@ -7833,25 +7833,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S46" t="n">
-        <v>1367.041115157221</v>
+        <v>1181.549921670758</v>
       </c>
       <c r="T46" t="n">
-        <v>1367.041115157221</v>
+        <v>1071.728593044475</v>
       </c>
       <c r="U46" t="n">
-        <v>1112.736879666338</v>
+        <v>786.3440262952371</v>
       </c>
       <c r="V46" t="n">
-        <v>1112.736879666338</v>
+        <v>520.3646811160613</v>
       </c>
       <c r="W46" t="n">
-        <v>1112.736879666338</v>
+        <v>520.3646811160613</v>
       </c>
       <c r="X46" t="n">
-        <v>1112.736879666338</v>
+        <v>520.3646811160613</v>
       </c>
       <c r="Y46" t="n">
-        <v>1112.736879666338</v>
+        <v>520.3646811160613</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.307400022270201</v>
+        <v>2.30740002227023</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>55.68833710567777</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>136.7001816090132</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>66.48137486492809</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288652</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.96522144053664</v>
+        <v>12.96522144053665</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>277.7867367707678</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>168.9571879832093</v>
       </c>
       <c r="O13" t="n">
-        <v>226.1669803891266</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754312</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>81.36892687125703</v>
+        <v>6.479541342903786</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>121.8126296026845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053664</v>
       </c>
       <c r="K16" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>114.8747690877621</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
-        <v>254.3449995307766</v>
+        <v>155.2665492366257</v>
       </c>
       <c r="P16" t="n">
         <v>210.6102387699041</v>
@@ -9242,22 +9242,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>75.46196456801563</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>176.9283876686998</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>121.8126296026846</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>81.36892687125697</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>21.8050091428865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>29.00602323601296</v>
+        <v>254.1913658784526</v>
       </c>
       <c r="N19" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>101.9350150692923</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6.479541342903815</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>252.3903522367154</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>21.8050091428865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9567,19 +9567,19 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
-        <v>277.7867367707679</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>43.58112710854846</v>
       </c>
       <c r="O22" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.33964417697715</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>231.4837002697544</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>329.2797094441736</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>322.4392500619318</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>187.9903396983904</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
-        <v>2.307400022270201</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>280.4624428893888</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>378.1936374216767</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.7281359387361</v>
+        <v>198.6046582739897</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>21.8050091428865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>411.170839035027</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>371.82160576125</v>
       </c>
       <c r="M26" t="n">
-        <v>296.9726900454929</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>322.4392500619318</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>2.307400022270201</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>98.59709120317882</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.7281359387361</v>
+        <v>346.0978776422536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>21.8050091428865</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>187.9903396983909</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>288.2005546779725</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>2.307400022270201</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>330.9355114431398</v>
       </c>
       <c r="L30" t="n">
-        <v>399.982120622297</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>211.1883073913158</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.728135938736</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>21.8050091428865</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>82.60246944111375</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>428.7785845734958</v>
+        <v>147.3801193665923</v>
       </c>
       <c r="L32" t="n">
         <v>371.8216057612501</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>2.307400022270201</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>134.2334963121029</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.7281359387361</v>
+        <v>149.3958625112163</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>97.25044776863602</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>55.68833710567793</v>
+        <v>155.1399044680795</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10752,19 +10752,19 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
-        <v>277.786736770768</v>
+        <v>277.7867367707679</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
-        <v>168.7415808816709</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>16.33159642018628</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>6.479541342903872</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.3903522367157</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.8050091428865</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>12.96522144053664</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>235.0336137565827</v>
       </c>
       <c r="N40" t="n">
-        <v>168.9571879832096</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
@@ -11001,7 +11001,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.06626921754309</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>203.1815564739418</v>
+        <v>252.3903522367154</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>21.8050091428865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,16 +11226,16 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>277.786736770768</v>
+        <v>277.7867367707679</v>
       </c>
       <c r="N43" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
-        <v>44.00008796351587</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>0.2653272026431353</v>
       </c>
       <c r="Q43" t="n">
         <v>16.06626921754309</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>47.71594925157662</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>55.6883371056777</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>204.6744029851389</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053664</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0.2653272026432738</v>
       </c>
       <c r="L46" t="n">
-        <v>5.564285996021724</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
         <v>277.7867367707679</v>
@@ -11469,13 +11469,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754309</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.72951946497767</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>125.3400329667918</v>
+        <v>371.3453488737139</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23272,13 +23272,13 @@
         <v>70.96521529601677</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8370587541321</v>
+        <v>65.07677996482687</v>
       </c>
       <c r="H11" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>52.36689279964237</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H12" t="n">
-        <v>76.07674487096699</v>
+        <v>50.34278270689757</v>
       </c>
       <c r="I12" t="n">
-        <v>8.475159690333342</v>
+        <v>8.475159690333349</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>53.44908182304545</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.18952004632396</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.530721081746</v>
+        <v>178.9702714968816</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23484,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>70.96521529601671</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>65.07677996482681</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.6610584811623</v>
@@ -23554,16 +23554,16 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>25.52876589209012</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>100.4821711478862</v>
+        <v>159.8918083132693</v>
       </c>
     </row>
     <row r="15">
@@ -23576,16 +23576,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>136.7184828054586</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23630,16 +23630,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>16.5071399199837</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
@@ -23664,13 +23664,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>165.5873294507275</v>
       </c>
       <c r="H16" t="n">
-        <v>145.1734758482728</v>
+        <v>106.1137876511501</v>
       </c>
       <c r="I16" t="n">
         <v>102.1663867729557</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>18.27804951513758</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.72951946497761</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>39.82643870619364</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>56.7974108453156</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>406.8370587541321</v>
+        <v>65.07677996482681</v>
       </c>
       <c r="H17" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>52.36689279964236</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0196767335278</v>
+        <v>235.121279125143</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>66.26659112377541</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>43.79780022696843</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>106.4214571194226</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>206.6034236708753</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>95.91519246778736</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>165.5873294507275</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T19" t="n">
         <v>229.1567118763024</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>219.7258946342863</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>54.72951946497761</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>39.82643870619364</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>56.7974108453156</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>70.96521529601671</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>105.814605196512</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H20" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>52.36689279964236</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>232.0467415393545</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.97964439335543</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>143.0657220688801</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>144.2962503072656</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24141,10 +24141,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H22" t="n">
-        <v>72.57031672775196</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I22" t="n">
         <v>102.1663867729557</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S22" t="n">
         <v>183.6362815515982</v>
       </c>
       <c r="T22" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>321.8119516383897</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>115.9210904495445</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>141.1935731335363</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5873294507275</v>
+        <v>27.46789570156264</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>282.530721081746</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>98.55946912309003</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>144.8394421444143</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>406.8370587541321</v>
       </c>
       <c r="H26" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>211.6610584811623</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>145.1734758482728</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U28" t="n">
-        <v>282.530721081746</v>
+        <v>56.94383608115228</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>84.89505617228687</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>130.786032739074</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>298.3722087065644</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>316.5455824165887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5873294507275</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>173.1914407044117</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>173.9576970315067</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>265.4810625730688</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I32" t="n">
-        <v>52.36689279964236</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>347.8278113212379</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>37.97891439264711</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>102.6843968045557</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>47.48346769279334</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>39.82643870619358</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>56.79741084531554</v>
+        <v>56.7974108453156</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>406.8370587541321</v>
+        <v>65.07677996482681</v>
       </c>
       <c r="H35" t="n">
         <v>298.3722087065644</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>25.48967247435561</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U35" t="n">
         <v>253.0196767335278</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>43.79780022696843</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>206.3544159817986</v>
       </c>
     </row>
     <row r="36">
@@ -25247,7 +25247,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H36" t="n">
         <v>76.07674487096699</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>59.42711391150792</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>6.077019129735703</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.530721081746</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>155.528977395253</v>
+        <v>111.0679209453021</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25396,22 +25396,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>39.82643870619364</v>
       </c>
       <c r="E38" t="n">
-        <v>56.79741084531554</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>70.96521529601671</v>
       </c>
       <c r="G38" t="n">
-        <v>340.5115915869218</v>
+        <v>65.07677996482681</v>
       </c>
       <c r="H38" t="n">
         <v>298.3722087065644</v>
       </c>
       <c r="I38" t="n">
-        <v>52.36689279964236</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>119.2151835263639</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>59.37246581695067</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>132.3134938044802</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>129.4433785575477</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25569,7 +25569,7 @@
         <v>145.1734758482728</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>228.0113125763205</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>47.48346769279334</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>56.79741084531554</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>394.8270964769368</v>
+        <v>70.96521529601671</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8370587541321</v>
+        <v>65.07677996482681</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I41" t="n">
-        <v>52.36689279964236</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>74.78202768820975</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,16 +25757,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>59.28122691123804</v>
+        <v>24.98879227247605</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25788,25 +25788,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>145.1734758482728</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1663867729557</v>
+        <v>95.82193766664886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S43" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>260.2307443670352</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>290.1958705886657</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>70.96521529601671</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>406.8370587541321</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.36689279964236</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.6610584811623</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>72.7525758578345</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>25.52876589209012</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>43.41435672587049</v>
       </c>
       <c r="C45" t="n">
-        <v>6.911384452688111</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>78.40949199263522</v>
       </c>
       <c r="S46" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.1567118763024</v>
+        <v>120.4335965362824</v>
       </c>
       <c r="U46" t="n">
-        <v>30.76952794577139</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>375148.0888537948</v>
+        <v>375148.0888537947</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>540572.7094838029</v>
+        <v>540572.7094838026</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540572.7094838027</v>
+        <v>540572.7094838026</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>540572.7094838028</v>
+        <v>540572.7094838026</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>540572.7094838026</v>
+        <v>540572.7094838027</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>375148.0888537948</v>
+        <v>375148.0888537947</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>375148.0888537948</v>
+        <v>375148.0888537947</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375148.0888537947</v>
+        <v>375148.0888537948</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>557687.5860756229</v>
+      </c>
+      <c r="C2" t="n">
         <v>557687.5860756227</v>
       </c>
-      <c r="C2" t="n">
-        <v>557687.5860756226</v>
-      </c>
       <c r="D2" t="n">
-        <v>557687.5860756228</v>
+        <v>557687.5860756227</v>
       </c>
       <c r="E2" t="n">
         <v>285198.8474215293</v>
@@ -26328,31 +26328,31 @@
         <v>285198.8474215293</v>
       </c>
       <c r="G2" t="n">
+        <v>285198.8474215292</v>
+      </c>
+      <c r="H2" t="n">
         <v>285198.8474215293</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>376212.2092279865</v>
+      </c>
+      <c r="J2" t="n">
+        <v>376212.2092279862</v>
+      </c>
+      <c r="K2" t="n">
+        <v>376212.2092279864</v>
+      </c>
+      <c r="L2" t="n">
+        <v>376212.2092279863</v>
+      </c>
+      <c r="M2" t="n">
         <v>285198.8474215294</v>
       </c>
-      <c r="I2" t="n">
-        <v>376212.2092279863</v>
-      </c>
-      <c r="J2" t="n">
-        <v>376212.2092279865</v>
-      </c>
-      <c r="K2" t="n">
-        <v>376212.2092279865</v>
-      </c>
-      <c r="L2" t="n">
-        <v>376212.2092279865</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>285198.8474215292</v>
+      </c>
+      <c r="O2" t="n">
         <v>285198.8474215293</v>
-      </c>
-      <c r="N2" t="n">
-        <v>285198.8474215293</v>
-      </c>
-      <c r="O2" t="n">
-        <v>285198.8474215295</v>
       </c>
       <c r="P2" t="n">
         <v>285198.8474215293</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59314.67172075349</v>
+        <v>59314.6717207534</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29582.14604844191</v>
+        <v>29582.1460484418</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>388814.6843578059</v>
       </c>
       <c r="E4" t="n">
-        <v>16645.89681544129</v>
+        <v>16645.8968154413</v>
       </c>
       <c r="F4" t="n">
         <v>16645.8968154413</v>
@@ -26438,25 +26438,25 @@
         <v>16645.8968154413</v>
       </c>
       <c r="I4" t="n">
+        <v>67749.56801483032</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67749.56801483032</v>
+      </c>
+      <c r="K4" t="n">
+        <v>67749.56801483031</v>
+      </c>
+      <c r="L4" t="n">
         <v>67749.56801483035</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67749.56801483035</v>
-      </c>
-      <c r="K4" t="n">
-        <v>67749.56801483034</v>
-      </c>
-      <c r="L4" t="n">
-        <v>67749.56801483034</v>
       </c>
       <c r="M4" t="n">
         <v>16645.8968154413</v>
       </c>
       <c r="N4" t="n">
-        <v>16645.89681544131</v>
+        <v>16645.8968154413</v>
       </c>
       <c r="O4" t="n">
-        <v>16645.89681544131</v>
+        <v>16645.89681544129</v>
       </c>
       <c r="P4" t="n">
         <v>16645.8968154413</v>
@@ -26490,13 +26490,13 @@
         <v>32676.91371957392</v>
       </c>
       <c r="I5" t="n">
-        <v>46238.58068315263</v>
+        <v>46238.58068315262</v>
       </c>
       <c r="J5" t="n">
-        <v>46238.58068315263</v>
+        <v>46238.58068315262</v>
       </c>
       <c r="K5" t="n">
-        <v>46238.58068315263</v>
+        <v>46238.58068315262</v>
       </c>
       <c r="L5" t="n">
         <v>46238.58068315263</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135245.3017178168</v>
+        <v>135240.9721500306</v>
       </c>
       <c r="C6" t="n">
-        <v>135245.3017178167</v>
+        <v>135240.9721500304</v>
       </c>
       <c r="D6" t="n">
-        <v>135245.3017178169</v>
+        <v>135240.9721500304</v>
       </c>
       <c r="E6" t="n">
-        <v>-304643.1063324107</v>
+        <v>-305526.4318313393</v>
       </c>
       <c r="F6" t="n">
-        <v>235876.0368865141</v>
+        <v>234992.7113875854</v>
       </c>
       <c r="G6" t="n">
-        <v>235876.0368865141</v>
+        <v>234992.7113875854</v>
       </c>
       <c r="H6" t="n">
-        <v>235876.0368865142</v>
+        <v>234992.7113875854</v>
       </c>
       <c r="I6" t="n">
-        <v>202909.3888092499</v>
+        <v>202319.6548000198</v>
       </c>
       <c r="J6" t="n">
-        <v>262224.0605300035</v>
+        <v>261634.3265207729</v>
       </c>
       <c r="K6" t="n">
-        <v>262224.0605300035</v>
+        <v>261634.3265207731</v>
       </c>
       <c r="L6" t="n">
-        <v>262224.0605300036</v>
+        <v>261634.326520773</v>
       </c>
       <c r="M6" t="n">
-        <v>206293.8908380722</v>
+        <v>205410.5653391437</v>
       </c>
       <c r="N6" t="n">
-        <v>235876.036886514</v>
+        <v>234992.7113875853</v>
       </c>
       <c r="O6" t="n">
-        <v>235876.0368865142</v>
+        <v>234992.7113875854</v>
       </c>
       <c r="P6" t="n">
-        <v>235876.0368865141</v>
+        <v>234992.7113875854</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>545.7747141827596</v>
+        <v>545.7747141827595</v>
       </c>
       <c r="F3" t="n">
         <v>545.7747141827596</v>
@@ -26810,13 +26810,13 @@
         <v>341.7602787893053</v>
       </c>
       <c r="I4" t="n">
-        <v>564.8140117429025</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="J4" t="n">
-        <v>564.8140117429025</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="K4" t="n">
-        <v>564.8140117429025</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="L4" t="n">
         <v>564.8140117429025</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>545.7747141827596</v>
+        <v>545.7747141827595</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>223.0537329535971</v>
+        <v>223.0537329535968</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>118.7065458357085</v>
+        <v>118.7065458357081</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,22 +31758,22 @@
         <v>22.47001122260978</v>
       </c>
       <c r="I11" t="n">
-        <v>84.58685293881746</v>
+        <v>84.58685293881744</v>
       </c>
       <c r="J11" t="n">
-        <v>186.2188809964583</v>
+        <v>186.2188809964582</v>
       </c>
       <c r="K11" t="n">
         <v>279.093830348644</v>
       </c>
       <c r="L11" t="n">
-        <v>346.2405757121441</v>
+        <v>346.240575712144</v>
       </c>
       <c r="M11" t="n">
-        <v>385.2593538964562</v>
+        <v>385.2593538964561</v>
       </c>
       <c r="N11" t="n">
-        <v>391.4932530187548</v>
+        <v>391.4932530187547</v>
       </c>
       <c r="O11" t="n">
         <v>369.6759773839615</v>
@@ -31788,10 +31788,10 @@
         <v>137.8231995569157</v>
       </c>
       <c r="S11" t="n">
-        <v>49.99735195754628</v>
+        <v>49.99735195754626</v>
       </c>
       <c r="T11" t="n">
-        <v>9.604537935015193</v>
+        <v>9.604537935015191</v>
       </c>
       <c r="U11" t="n">
         <v>0.1755255362195808</v>
@@ -31837,13 +31837,13 @@
         <v>11.33769736443808</v>
       </c>
       <c r="I12" t="n">
-        <v>40.41822175787418</v>
+        <v>40.41822175787417</v>
       </c>
       <c r="J12" t="n">
-        <v>110.9106897944418</v>
+        <v>110.9106897944417</v>
       </c>
       <c r="K12" t="n">
-        <v>189.5640344534591</v>
+        <v>189.564034453459</v>
       </c>
       <c r="L12" t="n">
         <v>254.8922379775237</v>
@@ -31852,10 +31852,10 @@
         <v>297.4472192296039</v>
       </c>
       <c r="N12" t="n">
-        <v>305.3197620407874</v>
+        <v>305.3197620407873</v>
       </c>
       <c r="O12" t="n">
-        <v>279.3079332101147</v>
+        <v>279.3079332101146</v>
       </c>
       <c r="P12" t="n">
         <v>224.169240623481</v>
@@ -31864,16 +31864,16 @@
         <v>149.8512007695758</v>
       </c>
       <c r="R12" t="n">
-        <v>72.88666843369008</v>
+        <v>72.88666843369006</v>
       </c>
       <c r="S12" t="n">
         <v>21.80524447701873</v>
       </c>
       <c r="T12" t="n">
-        <v>4.731763795603357</v>
+        <v>4.731763795603356</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07723227087491884</v>
+        <v>0.07723227087491882</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9841839108213696</v>
+        <v>0.9841839108213694</v>
       </c>
       <c r="H13" t="n">
-        <v>8.750289679848184</v>
+        <v>8.750289679848182</v>
       </c>
       <c r="I13" t="n">
-        <v>29.5970943363372</v>
+        <v>29.59709433633719</v>
       </c>
       <c r="J13" t="n">
-        <v>69.58180249507083</v>
+        <v>69.58180249507082</v>
       </c>
       <c r="K13" t="n">
         <v>114.3442761845191</v>
       </c>
       <c r="L13" t="n">
-        <v>146.3213061597517</v>
+        <v>146.3213061597516</v>
       </c>
       <c r="M13" t="n">
-        <v>154.2753015844807</v>
+        <v>154.2753015844806</v>
       </c>
       <c r="N13" t="n">
         <v>150.6069797350557</v>
@@ -31940,19 +31940,19 @@
         <v>119.0325704506136</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.4119818415967</v>
+        <v>82.41198184159667</v>
       </c>
       <c r="R13" t="n">
-        <v>44.25248748111357</v>
+        <v>44.25248748111356</v>
       </c>
       <c r="S13" t="n">
         <v>17.15164142767786</v>
       </c>
       <c r="T13" t="n">
-        <v>4.205149437145851</v>
+        <v>4.20514943714585</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05368275877207477</v>
+        <v>0.05368275877207476</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>68.53904305411217</v>
+        <v>68.53904305411214</v>
       </c>
       <c r="K11" t="n">
-        <v>136.0354271694067</v>
+        <v>136.0354271694066</v>
       </c>
       <c r="L11" t="n">
-        <v>192.9924059816524</v>
+        <v>192.9924059816523</v>
       </c>
       <c r="M11" t="n">
-        <v>235.534302298729</v>
+        <v>235.5343022987288</v>
       </c>
       <c r="N11" t="n">
-        <v>242.3747616809707</v>
+        <v>242.3747616809706</v>
       </c>
       <c r="O11" t="n">
         <v>220.1121399598651</v>
@@ -35430,7 +35430,7 @@
         <v>165.208446700275</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.43609219951125</v>
+        <v>92.43609219951119</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>28.4662324611084</v>
+        <v>225.1682475921461</v>
       </c>
       <c r="K12" t="n">
-        <v>99.96709912012572</v>
+        <v>155.6554362258034</v>
       </c>
       <c r="L12" t="n">
         <v>164.8318911206055</v>
       </c>
       <c r="M12" t="n">
-        <v>341.7602787893052</v>
+        <v>205.060097180292</v>
       </c>
       <c r="N12" t="n">
-        <v>286.4290240515488</v>
+        <v>219.9476491866206</v>
       </c>
       <c r="O12" t="n">
         <v>186.6203743212258</v>
       </c>
       <c r="P12" t="n">
-        <v>137.0858758041664</v>
+        <v>137.0858758041663</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.86304761366183</v>
+        <v>58.86304761366178</v>
       </c>
       <c r="R12" t="n">
-        <v>49.20879576277397</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.48565837367111</v>
+        <v>197.005933871329</v>
       </c>
       <c r="L13" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M13" t="n">
-        <v>341.7602787893052</v>
+        <v>63.97354201853737</v>
       </c>
       <c r="N13" t="n">
-        <v>67.61137583265412</v>
+        <v>236.5685638158634</v>
       </c>
       <c r="O13" t="n">
-        <v>275.2801526267985</v>
+        <v>303.4581717684484</v>
       </c>
       <c r="P13" t="n">
-        <v>240.1196065885718</v>
+        <v>240.1196065885717</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.86874585174918</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>28.4662324611084</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K15" t="n">
         <v>99.96709912012572</v>
       </c>
       <c r="L15" t="n">
-        <v>246.2008179918626</v>
+        <v>171.3114324635093</v>
       </c>
       <c r="M15" t="n">
         <v>205.060097180292</v>
       </c>
       <c r="N15" t="n">
-        <v>341.7602787893053</v>
+        <v>219.9476491866207</v>
       </c>
       <c r="O15" t="n">
         <v>186.6203743212258</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.50731502291176</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>197.0059338713291</v>
       </c>
       <c r="L16" t="n">
-        <v>58.64626657694677</v>
+        <v>312.1068009817716</v>
       </c>
       <c r="M16" t="n">
-        <v>178.8483111062995</v>
+        <v>63.9735420185374</v>
       </c>
       <c r="N16" t="n">
         <v>335.6470141100145</v>
       </c>
       <c r="O16" t="n">
-        <v>303.4581717684485</v>
+        <v>204.3797214742975</v>
       </c>
       <c r="P16" t="n">
         <v>240.1196065885718</v>
@@ -35892,10 +35892,10 @@
         <v>192.9924059816524</v>
       </c>
       <c r="M17" t="n">
-        <v>235.5343022987286</v>
+        <v>235.534302298729</v>
       </c>
       <c r="N17" t="n">
-        <v>242.3747616809707</v>
+        <v>242.3747616809703</v>
       </c>
       <c r="O17" t="n">
         <v>220.1121399598651</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>28.4662324611084</v>
+        <v>103.928197029124</v>
       </c>
       <c r="K18" t="n">
         <v>99.96709912012572</v>
       </c>
       <c r="L18" t="n">
-        <v>164.8318911206055</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="M18" t="n">
         <v>205.060097180292</v>
       </c>
       <c r="N18" t="n">
-        <v>341.7602787893053</v>
+        <v>219.9476491866207</v>
       </c>
       <c r="O18" t="n">
-        <v>267.9893011924828</v>
+        <v>186.6203743212258</v>
       </c>
       <c r="P18" t="n">
         <v>137.0858758041664</v>
@@ -35986,7 +35986,7 @@
         <v>58.86304761366183</v>
       </c>
       <c r="R18" t="n">
-        <v>49.20879576277397</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>197.0059338713291</v>
       </c>
       <c r="L19" t="n">
-        <v>58.64626657694677</v>
+        <v>312.1068009817716</v>
       </c>
       <c r="M19" t="n">
-        <v>92.97956525455037</v>
+        <v>318.16490789699</v>
       </c>
       <c r="N19" t="n">
-        <v>335.6470141100145</v>
+        <v>67.61137583265412</v>
       </c>
       <c r="O19" t="n">
         <v>303.4581717684485</v>
       </c>
       <c r="P19" t="n">
-        <v>240.1196065885718</v>
+        <v>29.50936781866767</v>
       </c>
       <c r="Q19" t="n">
         <v>85.86874585174918</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>225.1682475921462</v>
+        <v>28.4662324611084</v>
       </c>
       <c r="K21" t="n">
         <v>99.96709912012572</v>
@@ -36211,7 +36211,7 @@
         <v>205.060097180292</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4271905295246</v>
+        <v>219.9476491866207</v>
       </c>
       <c r="O21" t="n">
         <v>186.6203743212258</v>
@@ -36220,10 +36220,10 @@
         <v>137.0858758041664</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.86304761366183</v>
+        <v>311.2533998503773</v>
       </c>
       <c r="R21" t="n">
-        <v>49.20879576277397</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,19 +36287,19 @@
         <v>312.1068009817716</v>
       </c>
       <c r="M22" t="n">
-        <v>341.7602787893053</v>
+        <v>63.9735420185374</v>
       </c>
       <c r="N22" t="n">
-        <v>67.61137583265412</v>
+        <v>111.1925029412026</v>
       </c>
       <c r="O22" t="n">
         <v>303.4581717684485</v>
       </c>
       <c r="P22" t="n">
-        <v>29.50936781866767</v>
+        <v>240.1196065885718</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.27337495943404</v>
+        <v>85.86874585174918</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>68.53904305411217</v>
+        <v>332.3297627225472</v>
       </c>
       <c r="K23" t="n">
         <v>136.0354271694067</v>
       </c>
       <c r="L23" t="n">
-        <v>424.4761062514067</v>
+        <v>192.9924059816524</v>
       </c>
       <c r="M23" t="n">
-        <v>564.8140117429025</v>
+        <v>235.534302298729</v>
       </c>
       <c r="N23" t="n">
-        <v>564.8140117429025</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O23" t="n">
         <v>220.1121399598651</v>
       </c>
       <c r="P23" t="n">
-        <v>165.208446700275</v>
+        <v>353.1987863986654</v>
       </c>
       <c r="Q23" t="n">
-        <v>92.43609219951125</v>
+        <v>423.6474776289625</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>100.2102149795824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>28.4662324611084</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K24" t="n">
-        <v>99.96709912012572</v>
+        <v>512.5328688597484</v>
       </c>
       <c r="L24" t="n">
-        <v>445.2943340099943</v>
+        <v>164.8318911206055</v>
       </c>
       <c r="M24" t="n">
         <v>205.060097180292</v>
@@ -36451,16 +36451,16 @@
         <v>219.9476491866207</v>
       </c>
       <c r="O24" t="n">
-        <v>564.8140117429025</v>
+        <v>186.6203743212258</v>
       </c>
       <c r="P24" t="n">
-        <v>564.8140117429025</v>
+        <v>335.6905340781561</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.86304761366183</v>
+        <v>386.5836164815864</v>
       </c>
       <c r="R24" t="n">
-        <v>49.20879576277397</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>332.3297627225472</v>
+        <v>68.53904305411217</v>
       </c>
       <c r="K26" t="n">
-        <v>136.0354271694067</v>
+        <v>547.2062662044336</v>
       </c>
       <c r="L26" t="n">
-        <v>192.9924059816524</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="M26" t="n">
-        <v>532.5069923442219</v>
+        <v>235.534302298729</v>
       </c>
       <c r="N26" t="n">
-        <v>564.8140117429025</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O26" t="n">
         <v>220.1121399598651</v>
@@ -36618,7 +36618,7 @@
         <v>92.43609219951125</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>100.2102149795824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>225.1682475921462</v>
+        <v>28.4662324611084</v>
       </c>
       <c r="K27" t="n">
         <v>512.5328688597484</v>
       </c>
       <c r="L27" t="n">
-        <v>263.4289823237843</v>
+        <v>164.8318911206055</v>
       </c>
       <c r="M27" t="n">
         <v>205.060097180292</v>
@@ -36691,13 +36691,13 @@
         <v>186.6203743212258</v>
       </c>
       <c r="P27" t="n">
-        <v>564.8140117429025</v>
+        <v>483.18375344642</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.86304761366183</v>
+        <v>386.5836164815864</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>332.3297627225472</v>
       </c>
       <c r="K29" t="n">
-        <v>324.0257668677975</v>
+        <v>136.0354271694067</v>
       </c>
       <c r="L29" t="n">
         <v>192.9924059816524</v>
@@ -36849,13 +36849,13 @@
         <v>220.1121399598651</v>
       </c>
       <c r="P29" t="n">
-        <v>165.208446700275</v>
+        <v>453.4090013782476</v>
       </c>
       <c r="Q29" t="n">
         <v>423.6474776289625</v>
       </c>
       <c r="R29" t="n">
-        <v>100.2102149795824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>225.1682475921462</v>
+        <v>28.4662324611084</v>
       </c>
       <c r="K30" t="n">
-        <v>99.96709912012572</v>
+        <v>430.9026105632655</v>
       </c>
       <c r="L30" t="n">
-        <v>564.8140117429025</v>
+        <v>164.8318911206055</v>
       </c>
       <c r="M30" t="n">
-        <v>416.2484045716079</v>
+        <v>205.060097180292</v>
       </c>
       <c r="N30" t="n">
         <v>219.9476491866207</v>
@@ -36928,13 +36928,13 @@
         <v>186.6203743212258</v>
       </c>
       <c r="P30" t="n">
-        <v>137.0858758041664</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="Q30" t="n">
         <v>386.5836164815864</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>151.1415124952259</v>
+        <v>332.3297627225472</v>
       </c>
       <c r="K32" t="n">
-        <v>564.8140117429025</v>
+        <v>283.4155465359989</v>
       </c>
       <c r="L32" t="n">
         <v>564.8140117429025</v>
@@ -37092,7 +37092,7 @@
         <v>92.43609219951125</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>100.2102149795824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>225.1682475921462</v>
       </c>
       <c r="K33" t="n">
-        <v>234.2005954322287</v>
+        <v>512.5328688597484</v>
       </c>
       <c r="L33" t="n">
         <v>164.8318911206055</v>
@@ -37165,7 +37165,7 @@
         <v>186.6203743212258</v>
       </c>
       <c r="P33" t="n">
-        <v>564.8140117429025</v>
+        <v>286.4817383153826</v>
       </c>
       <c r="Q33" t="n">
         <v>386.5836164815864</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>225.1682475921462</v>
+        <v>125.7166802297444</v>
       </c>
       <c r="K36" t="n">
         <v>99.96709912012572</v>
@@ -37399,7 +37399,7 @@
         <v>219.9476491866207</v>
       </c>
       <c r="O36" t="n">
-        <v>242.3087114269038</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="P36" t="n">
         <v>137.0858758041664</v>
@@ -37478,13 +37478,13 @@
         <v>335.6470141100145</v>
       </c>
       <c r="O37" t="n">
-        <v>217.8547531193427</v>
+        <v>303.4581717684485</v>
       </c>
       <c r="P37" t="n">
         <v>29.50936781866767</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.86874585174918</v>
+        <v>0.2653272026431884</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>68.53904305411204</v>
+        <v>68.53904305411217</v>
       </c>
       <c r="K38" t="n">
         <v>136.0354271694067</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.4662324611084</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K39" t="n">
         <v>99.96709912012572</v>
@@ -37639,13 +37639,13 @@
         <v>186.6203743212258</v>
       </c>
       <c r="P39" t="n">
-        <v>137.0858758041664</v>
+        <v>143.5654171470702</v>
       </c>
       <c r="Q39" t="n">
-        <v>311.2533998503775</v>
+        <v>58.86304761366183</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>197.0059338713291</v>
+        <v>30.48565837367111</v>
       </c>
       <c r="L40" t="n">
-        <v>312.1068009817716</v>
+        <v>58.64626657694677</v>
       </c>
       <c r="M40" t="n">
-        <v>63.9735420185374</v>
+        <v>299.0071557751201</v>
       </c>
       <c r="N40" t="n">
-        <v>236.5685638158637</v>
+        <v>335.6470141100145</v>
       </c>
       <c r="O40" t="n">
         <v>303.4581717684485</v>
@@ -37721,7 +37721,7 @@
         <v>240.1196065885718</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>85.86874585174918</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>137.0858758041664</v>
       </c>
       <c r="Q42" t="n">
-        <v>262.0446040876037</v>
+        <v>311.2533998503773</v>
       </c>
       <c r="R42" t="n">
-        <v>49.20879576277397</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37952,10 +37952,10 @@
         <v>335.6470141100145</v>
       </c>
       <c r="O43" t="n">
-        <v>93.1132602011877</v>
+        <v>303.4581717684485</v>
       </c>
       <c r="P43" t="n">
-        <v>240.1196065885718</v>
+        <v>29.77469502131081</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>225.1682475921462</v>
+        <v>28.4662324611084</v>
       </c>
       <c r="K45" t="n">
-        <v>99.96709912012572</v>
+        <v>147.6830483717023</v>
       </c>
       <c r="L45" t="n">
         <v>164.8318911206055</v>
@@ -38110,10 +38110,10 @@
         <v>219.9476491866207</v>
       </c>
       <c r="O45" t="n">
-        <v>242.3087114269035</v>
+        <v>186.6203743212258</v>
       </c>
       <c r="P45" t="n">
-        <v>137.0858758041664</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="Q45" t="n">
         <v>58.86304761366183</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>39.50731502291176</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>197.0059338713291</v>
+        <v>30.75098557631439</v>
       </c>
       <c r="L46" t="n">
-        <v>64.2105525729685</v>
+        <v>312.1068009817716</v>
       </c>
       <c r="M46" t="n">
         <v>341.7602787893053</v>
@@ -38189,13 +38189,13 @@
         <v>335.6470141100145</v>
       </c>
       <c r="O46" t="n">
-        <v>49.11317223767183</v>
+        <v>303.4581717684485</v>
       </c>
       <c r="P46" t="n">
-        <v>240.1196065885718</v>
+        <v>29.50936781866767</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.86874585174918</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
